--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jryis\Dropbox\Jiang Ruoyu\学习\LMU\Ruoyu_MT\3 Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MT002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EB0F9-4473-4FC2-9089-4CBDFE33B472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4C3B5-F773-4888-8865-0F8E2186A674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -596,7 +596,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1721,8 +1720,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2245,62 +2244,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="31" customFormat="1">
-      <c r="A19" s="31">
+    <row r="19" spans="1:10" s="32" customFormat="1">
+      <c r="A19" s="32">
         <v>9</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
         <v>8</v>
       </c>
-      <c r="F19" s="31">
-        <v>2</v>
-      </c>
-      <c r="G19" s="31">
-        <v>2</v>
-      </c>
-      <c r="H19" s="31">
-        <v>2</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="34" customFormat="1">
-      <c r="A20" s="34">
+      <c r="F19" s="32">
+        <v>2</v>
+      </c>
+      <c r="G19" s="32">
+        <v>2</v>
+      </c>
+      <c r="H19" s="32">
+        <v>2</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="26" customFormat="1">
+      <c r="A20" s="26">
         <v>10</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="34">
-        <v>1</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
         <v>9</v>
       </c>
-      <c r="F20" s="34">
-        <v>1</v>
-      </c>
-      <c r="G20" s="34">
-        <v>1</v>
-      </c>
-      <c r="H20" s="34">
-        <v>1</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>58</v>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MT002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4C3B5-F773-4888-8865-0F8E2186A674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E20ED-9E7C-4846-9486-8DF2E52E579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>Col1</t>
   </si>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +316,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,11 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -552,14 +539,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -595,12 +581,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1720,8 +1704,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2015,32 +1999,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1">
-      <c r="A11" s="31">
+    <row r="11" spans="1:10" s="32" customFormat="1">
+      <c r="A11" s="32">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
         <v>4</v>
       </c>
-      <c r="F11" s="31">
-        <v>2</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="32">
+        <v>2</v>
+      </c>
+      <c r="G11" s="32">
+        <v>2</v>
+      </c>
+      <c r="H11" s="32">
+        <v>2</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2073,32 +2057,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1">
-      <c r="A13" s="31">
+    <row r="13" spans="1:10" s="32" customFormat="1">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
         <v>5</v>
       </c>
-      <c r="F13" s="31">
-        <v>2</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>2</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="F13" s="32">
+        <v>2</v>
+      </c>
+      <c r="G13" s="32">
+        <v>2</v>
+      </c>
+      <c r="H13" s="32">
+        <v>2</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2189,30 +2173,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="33" customFormat="1">
-      <c r="A17" s="33">
+    <row r="17" spans="1:10" s="31" customFormat="1">
+      <c r="A17" s="31">
         <v>8</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="33">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
         <v>7</v>
       </c>
-      <c r="F17" s="33">
-        <v>2</v>
-      </c>
-      <c r="G17" s="33">
-        <v>2</v>
-      </c>
-      <c r="H17" s="33">
-        <v>2</v>
+      <c r="F17" s="31">
+        <v>2</v>
+      </c>
+      <c r="G17" s="31">
+        <v>2</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1">
@@ -2326,30 +2313,33 @@
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" s="33" customFormat="1">
-      <c r="A22" s="33">
+    <row r="22" spans="1:10" s="31" customFormat="1">
+      <c r="A22" s="31">
         <v>11</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="33">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
         <v>10</v>
       </c>
-      <c r="F22" s="33">
-        <v>1</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33">
-        <v>1</v>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MT002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E20ED-9E7C-4846-9486-8DF2E52E579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF196542-BDEE-4AC0-961C-94B214411649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Col1</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>13.Mar 15:00</t>
+  </si>
+  <si>
+    <t>Qun Wang</t>
+  </si>
+  <si>
+    <t>14.Mar 14:00</t>
+  </si>
+  <si>
+    <t>Anqi Wang</t>
+  </si>
+  <si>
+    <t>15.Mar</t>
+  </si>
+  <si>
+    <t>Zhihan Jiang</t>
   </si>
 </sst>
 </file>
@@ -579,8 +594,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1704,8 +1719,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1999,33 +2014,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="32" customFormat="1">
-      <c r="A11" s="32">
+    <row r="11" spans="1:10" s="31" customFormat="1">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
         <v>4</v>
       </c>
-      <c r="F11" s="32">
-        <v>2</v>
-      </c>
-      <c r="G11" s="32">
-        <v>2</v>
-      </c>
-      <c r="H11" s="32">
-        <v>2</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>58</v>
+      <c r="F11" s="31">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31">
+        <v>2</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1">
@@ -2057,33 +2072,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="32" customFormat="1">
-      <c r="A13" s="32">
+    <row r="13" spans="1:10" s="31" customFormat="1">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
         <v>5</v>
       </c>
-      <c r="F13" s="32">
-        <v>2</v>
-      </c>
-      <c r="G13" s="32">
-        <v>2</v>
-      </c>
-      <c r="H13" s="32">
-        <v>2</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>58</v>
+      <c r="F13" s="31">
+        <v>2</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
+      <c r="H13" s="31">
+        <v>2</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="28" customFormat="1">
@@ -2115,61 +2130,61 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="32" customFormat="1">
-      <c r="A15" s="32">
+    <row r="15" spans="1:10" s="31" customFormat="1">
+      <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
         <v>6</v>
       </c>
-      <c r="F15" s="32">
-        <v>2</v>
-      </c>
-      <c r="G15" s="32">
-        <v>2</v>
-      </c>
-      <c r="H15" s="32">
-        <v>2</v>
-      </c>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="31">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <v>2</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="32" customFormat="1">
-      <c r="A16" s="32">
+    <row r="16" spans="1:10" s="31" customFormat="1">
+      <c r="A16" s="31">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="32">
-        <v>1</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
         <v>7</v>
       </c>
-      <c r="F16" s="32">
-        <v>1</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="32" t="s">
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2199,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1">
@@ -2231,32 +2246,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="32" customFormat="1">
-      <c r="A19" s="32">
+    <row r="19" spans="1:10" s="31" customFormat="1">
+      <c r="A19" s="31">
         <v>9</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31">
         <v>8</v>
       </c>
-      <c r="F19" s="32">
-        <v>2</v>
-      </c>
-      <c r="G19" s="32">
-        <v>2</v>
-      </c>
-      <c r="H19" s="32">
-        <v>2</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="F19" s="31">
+        <v>2</v>
+      </c>
+      <c r="G19" s="31">
+        <v>2</v>
+      </c>
+      <c r="H19" s="31">
+        <v>2</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2313,45 +2328,30 @@
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" s="31" customFormat="1">
-      <c r="A22" s="31">
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="31">
-        <v>1</v>
-      </c>
-      <c r="H22" s="31">
-        <v>1</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>58</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>16</v>
       </c>
@@ -2616,30 +2616,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="13" customFormat="1">
-      <c r="A34" s="8">
+    <row r="34" spans="1:9" s="32" customFormat="1">
+      <c r="A34" s="32">
         <v>17</v>
       </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <v>2</v>
-      </c>
-      <c r="G34" s="13">
-        <v>2</v>
-      </c>
-      <c r="H34" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="B34" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>2</v>
+      </c>
+      <c r="G34" s="32">
+        <v>2</v>
+      </c>
+      <c r="H34" s="32">
+        <v>2</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>17</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D35">
         <v>1</v>
       </c>
@@ -2656,10 +2668,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>18</v>
       </c>
+      <c r="B36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
       <c r="D36">
         <v>0</v>
       </c>
@@ -2676,10 +2694,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>18</v>
       </c>
+      <c r="B37" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
@@ -2696,10 +2717,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>19</v>
       </c>
+      <c r="B38" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -2716,10 +2743,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>19</v>
       </c>
+      <c r="B39" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -2736,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2756,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2776,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>21</v>
       </c>
@@ -2796,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>21</v>
       </c>
@@ -2816,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2836,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>22</v>
       </c>
@@ -2856,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>23</v>
       </c>
@@ -2876,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>23</v>
       </c>
@@ -2896,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>24</v>
       </c>
@@ -2916,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>24</v>
       </c>
@@ -2936,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>25</v>
       </c>
@@ -2956,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>25</v>
       </c>
@@ -2976,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>26</v>
       </c>
@@ -2996,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>26</v>
       </c>
@@ -3016,30 +3046,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
+    <row r="54" spans="1:9" s="30" customFormat="1">
+      <c r="A54" s="30">
         <v>27</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="B54" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0</v>
+      </c>
+      <c r="E54" s="30">
         <v>10</v>
       </c>
-      <c r="F54" s="27">
-        <v>2</v>
-      </c>
-      <c r="G54" s="27">
-        <v>2</v>
-      </c>
-      <c r="H54" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="F54" s="30">
+        <v>2</v>
+      </c>
+      <c r="G54" s="30">
+        <v>2</v>
+      </c>
+      <c r="H54" s="30">
+        <v>2</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>27</v>
       </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -3056,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>28</v>
       </c>
@@ -3076,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>28</v>
       </c>
@@ -3096,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>29</v>
       </c>
@@ -3116,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>29</v>
       </c>
@@ -3136,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>30</v>
       </c>
@@ -3156,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>30</v>
       </c>
@@ -3176,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>31</v>
       </c>
@@ -3196,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>31</v>
       </c>
@@ -3216,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>32</v>
       </c>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF196542-BDEE-4AC0-961C-94B214411649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EE6C1-84CF-48F3-8E48-BB7C4ED2B685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Col1</t>
   </si>
@@ -247,9 +247,6 @@
     <t>12.Mar 15:00</t>
   </si>
   <si>
-    <t>Hu</t>
-  </si>
-  <si>
     <t>19.Mar 13:00</t>
   </si>
   <si>
@@ -272,13 +269,16 @@
   </si>
   <si>
     <t>Zhihan Jiang</t>
+  </si>
+  <si>
+    <t>Shuqin Hu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +331,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +359,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,13 +566,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -595,11 +608,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1719,8 +1735,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1933,30 +1949,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:10" s="34" customFormat="1">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="34">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2280,10 +2299,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
@@ -2309,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2328,23 +2347,29 @@
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+    <row r="22" spans="1:10" s="34" customFormat="1">
+      <c r="A22" s="34">
         <v>11</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
         <v>1</v>
       </c>
     </row>
@@ -2352,6 +2377,9 @@
       <c r="A23">
         <v>11</v>
       </c>
+      <c r="B23" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -2368,30 +2396,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+    <row r="24" spans="1:10" s="34" customFormat="1">
+      <c r="A24" s="34">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
         <v>11</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="F24" s="34">
+        <v>1</v>
+      </c>
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34">
+        <v>1</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2526,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>70</v>
@@ -2555,10 +2586,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2576,23 +2607,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="32" spans="1:10" s="34" customFormat="1">
+      <c r="A32" s="34">
         <v>16</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="B32" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="34">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34">
         <v>15</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="34">
+        <v>1</v>
+      </c>
+      <c r="G32" s="34">
+        <v>1</v>
+      </c>
+      <c r="H32" s="34">
         <v>1</v>
       </c>
     </row>
@@ -2600,6 +2637,9 @@
       <c r="A33">
         <v>16</v>
       </c>
+      <c r="B33" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="D33">
         <v>0</v>
       </c>
@@ -2616,33 +2656,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="32" customFormat="1">
-      <c r="A34" s="32">
+    <row r="34" spans="1:9" s="33" customFormat="1">
+      <c r="A34" s="33">
         <v>17</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="32">
-        <v>0</v>
-      </c>
-      <c r="E34" s="32">
-        <v>0</v>
-      </c>
-      <c r="F34" s="32">
-        <v>2</v>
-      </c>
-      <c r="G34" s="32">
-        <v>2</v>
-      </c>
-      <c r="H34" s="32">
-        <v>2</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>58</v>
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="33">
+        <v>2</v>
+      </c>
+      <c r="G34" s="33">
+        <v>2</v>
+      </c>
+      <c r="H34" s="33">
+        <v>2</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2650,7 +2690,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2672,25 +2712,19 @@
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="27">
-        <v>2</v>
-      </c>
-      <c r="G36" s="27">
-        <v>2</v>
-      </c>
-      <c r="H36" s="27">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
     </row>
@@ -2698,22 +2732,19 @@
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="27">
-        <v>1</v>
-      </c>
-      <c r="G37" s="27">
-        <v>1</v>
-      </c>
-      <c r="H37" s="27">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
@@ -2721,25 +2752,19 @@
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="27">
-        <v>2</v>
-      </c>
-      <c r="G38" s="27">
-        <v>2</v>
-      </c>
-      <c r="H38" s="27">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
     </row>
@@ -2747,9 +2772,6 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>79</v>
-      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -3075,30 +3097,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
+    <row r="55" spans="1:9" s="32" customFormat="1">
+      <c r="A55" s="32">
         <v>27</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="32">
+        <v>1</v>
+      </c>
+      <c r="E55" s="32">
         <v>10</v>
       </c>
-      <c r="F55" s="27">
-        <v>1</v>
-      </c>
-      <c r="G55" s="27">
-        <v>1</v>
-      </c>
-      <c r="H55" s="27">
-        <v>1</v>
+      <c r="F55" s="32">
+        <v>1</v>
+      </c>
+      <c r="G55" s="32">
+        <v>1</v>
+      </c>
+      <c r="H55" s="32">
+        <v>1</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:9">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MasterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MT002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EE6C1-84CF-48F3-8E48-BB7C4ED2B685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160C771-B66F-49A1-9C44-9326F9CDA5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Col1</t>
   </si>
@@ -230,15 +230,6 @@
   </si>
   <si>
     <t>15.Mar 16:00</t>
-  </si>
-  <si>
-    <t>Abdelrahman Magdy</t>
-  </si>
-  <si>
-    <t>15.Mar 17:00</t>
-  </si>
-  <si>
-    <t>16.Mar 19:00</t>
   </si>
   <si>
     <t>19.Mar 9:00</t>
@@ -1735,8 +1726,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1986,7 +1977,7 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2299,10 +2290,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
@@ -2328,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2352,10 +2343,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="34">
         <v>1</v>
@@ -2378,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2401,10 +2392,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D24" s="34">
         <v>1</v>
@@ -2420,20 +2411,14 @@
       </c>
       <c r="H24" s="34">
         <v>1</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
+      <c r="B25" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2557,10 +2542,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
@@ -2586,10 +2571,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2607,29 +2592,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="34" customFormat="1">
-      <c r="A32" s="34">
+    <row r="32" spans="1:10">
+      <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="34">
-        <v>1</v>
-      </c>
-      <c r="E32" s="34">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>15</v>
       </c>
-      <c r="F32" s="34">
-        <v>1</v>
-      </c>
-      <c r="G32" s="34">
-        <v>1</v>
-      </c>
-      <c r="H32" s="34">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -2637,9 +2616,6 @@
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>78</v>
-      </c>
       <c r="D33">
         <v>0</v>
       </c>
@@ -2661,10 +2637,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" s="33">
         <v>0</v>
@@ -2690,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MT002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160C771-B66F-49A1-9C44-9326F9CDA5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2601BEE-9FB9-4917-B818-707E6AFB5720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Col1</t>
   </si>
@@ -217,9 +217,6 @@
     <t>17.Mar 13:00</t>
   </si>
   <si>
-    <t>umer saeed</t>
-  </si>
-  <si>
     <t>17.Mar 17:00</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>15.Mar 16:00</t>
   </si>
   <si>
-    <t>19.Mar 9:00</t>
-  </si>
-  <si>
     <t>12.Mar 15:00</t>
   </si>
   <si>
@@ -263,6 +257,21 @@
   </si>
   <si>
     <t>Shuqin Hu</t>
+  </si>
+  <si>
+    <t>Jan Obernolte</t>
+  </si>
+  <si>
+    <t>17.Mar 16:00</t>
+  </si>
+  <si>
+    <t>Umer Saeed</t>
+  </si>
+  <si>
+    <t>18.Mar 18:00</t>
+  </si>
+  <si>
+    <t>18.Mar 19:00</t>
   </si>
 </sst>
 </file>
@@ -308,14 +317,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -329,8 +330,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,11 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -557,14 +561,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -596,18 +599,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,8 +1735,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1736,6 +1745,7 @@
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1753,7 +1763,7 @@
       <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1785,7 +1795,7 @@
       <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="35">
         <v>0</v>
       </c>
       <c r="F2" s="26">
@@ -1814,7 +1824,7 @@
       <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
       <c r="F3" s="28">
@@ -1843,7 +1853,7 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="35">
         <v>1</v>
       </c>
       <c r="F4" s="26">
@@ -1872,7 +1882,7 @@
       <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="36">
         <v>1</v>
       </c>
       <c r="F5" s="28">
@@ -1892,16 +1902,10 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <v>2</v>
       </c>
       <c r="F6">
@@ -1918,55 +1922,49 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="30" customFormat="1">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="34" customFormat="1">
-      <c r="A8" s="34">
-        <v>4</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
         <v>3</v>
       </c>
-      <c r="F8" s="34">
-        <v>1</v>
-      </c>
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34">
-        <v>1</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>58</v>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1974,15 +1972,15 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9">
@@ -2008,7 +2006,7 @@
       <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="35">
         <v>4</v>
       </c>
       <c r="F10" s="26">
@@ -2024,32 +2022,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1">
-      <c r="A11" s="31">
+    <row r="11" spans="1:10" s="30" customFormat="1">
+      <c r="A11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>4</v>
       </c>
-      <c r="F11" s="31">
-        <v>2</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2</v>
+      </c>
+      <c r="H11" s="30">
+        <v>2</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2066,7 +2064,7 @@
       <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="35">
         <v>5</v>
       </c>
       <c r="F12" s="26">
@@ -2082,32 +2080,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1">
-      <c r="A13" s="31">
+    <row r="13" spans="1:10" s="30" customFormat="1">
+      <c r="A13" s="30">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <v>5</v>
       </c>
-      <c r="F13" s="31">
-        <v>2</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>2</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2</v>
+      </c>
+      <c r="H13" s="30">
+        <v>2</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2124,7 +2122,7 @@
       <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="36">
         <v>6</v>
       </c>
       <c r="F14" s="28">
@@ -2140,90 +2138,90 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="31" customFormat="1">
-      <c r="A15" s="31">
+    <row r="15" spans="1:10" s="30" customFormat="1">
+      <c r="A15" s="30">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
         <v>6</v>
       </c>
-      <c r="F15" s="31">
-        <v>2</v>
-      </c>
-      <c r="G15" s="31">
-        <v>2</v>
-      </c>
-      <c r="H15" s="31">
-        <v>2</v>
-      </c>
-      <c r="I15" s="31" t="s">
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>2</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1">
-      <c r="A16" s="31">
+    <row r="16" spans="1:10" s="30" customFormat="1">
+      <c r="A16" s="30">
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+      <c r="E16" s="37">
         <v>7</v>
       </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31" t="s">
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="31" customFormat="1">
-      <c r="A17" s="31">
+    <row r="17" spans="1:10" s="30" customFormat="1">
+      <c r="A17" s="30">
         <v>8</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
         <v>7</v>
       </c>
-      <c r="F17" s="31">
-        <v>2</v>
-      </c>
-      <c r="G17" s="31">
-        <v>2</v>
-      </c>
-      <c r="H17" s="31">
-        <v>2</v>
-      </c>
-      <c r="I17" s="31" t="s">
+      <c r="F17" s="30">
+        <v>2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>2</v>
+      </c>
+      <c r="H17" s="30">
+        <v>2</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2240,7 +2238,7 @@
       <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="36">
         <v>8</v>
       </c>
       <c r="F18" s="28">
@@ -2256,32 +2254,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="31" customFormat="1">
-      <c r="A19" s="31">
+    <row r="19" spans="1:10" s="30" customFormat="1">
+      <c r="A19" s="30">
         <v>9</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="30">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
         <v>8</v>
       </c>
-      <c r="F19" s="31">
-        <v>2</v>
-      </c>
-      <c r="G19" s="31">
-        <v>2</v>
-      </c>
-      <c r="H19" s="31">
-        <v>2</v>
-      </c>
-      <c r="I19" s="31" t="s">
+      <c r="F19" s="30">
+        <v>2</v>
+      </c>
+      <c r="G19" s="30">
+        <v>2</v>
+      </c>
+      <c r="H19" s="30">
+        <v>2</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2290,15 +2288,15 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="35">
         <v>9</v>
       </c>
       <c r="F20" s="26">
@@ -2319,12 +2317,12 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="25">
         <v>9</v>
       </c>
       <c r="F21">
@@ -2338,30 +2336,33 @@
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" s="34" customFormat="1">
-      <c r="A22" s="34">
+    <row r="22" spans="1:10" s="30" customFormat="1">
+      <c r="A22" s="30">
         <v>11</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="34">
-        <v>1</v>
-      </c>
-      <c r="E22" s="34">
+      <c r="B22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="30">
+        <v>1</v>
+      </c>
+      <c r="E22" s="37">
         <v>10</v>
       </c>
-      <c r="F22" s="34">
-        <v>1</v>
-      </c>
-      <c r="G22" s="34">
-        <v>1</v>
-      </c>
-      <c r="H22" s="34">
-        <v>1</v>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+      <c r="G22" s="30">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2369,48 +2370,51 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="30" customFormat="1">
+      <c r="A24" s="30">
+        <v>12</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="34" customFormat="1">
-      <c r="A24" s="34">
-        <v>12</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="34">
-        <v>1</v>
-      </c>
-      <c r="E24" s="34">
+      <c r="C24" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
         <v>11</v>
       </c>
-      <c r="F24" s="34">
-        <v>1</v>
-      </c>
-      <c r="G24" s="34">
-        <v>1</v>
-      </c>
-      <c r="H24" s="34">
-        <v>1</v>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="30">
+        <v>1</v>
+      </c>
+      <c r="H24" s="30">
+        <v>1</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2418,12 +2422,12 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="25">
         <v>11</v>
       </c>
       <c r="F25">
@@ -2449,7 +2453,7 @@
       <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="36">
         <v>12</v>
       </c>
       <c r="F26" s="28">
@@ -2465,56 +2469,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="27" spans="1:10" s="33" customFormat="1">
+      <c r="A27" s="33">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="38">
         <v>12</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+      <c r="F27" s="33">
+        <v>2</v>
+      </c>
+      <c r="G27" s="33">
+        <v>2</v>
+      </c>
+      <c r="H27" s="33">
+        <v>2</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="31" customFormat="1">
+      <c r="A28" s="31">
         <v>14</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="31">
+        <v>1</v>
+      </c>
+      <c r="E28" s="39">
         <v>13</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="31">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2524,7 +2534,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="25">
         <v>13</v>
       </c>
       <c r="F29">
@@ -2542,15 +2552,15 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="35">
         <v>14</v>
       </c>
       <c r="F30" s="26">
@@ -2571,55 +2581,70 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1">
+      <c r="A32" s="31">
+        <v>16</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="39">
         <v>15</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
         <v>16</v>
       </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="25">
         <v>15</v>
       </c>
       <c r="F33">
@@ -2632,32 +2657,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="33" customFormat="1">
-      <c r="A34" s="33">
+    <row r="34" spans="1:9" s="32" customFormat="1">
+      <c r="A34" s="32">
         <v>17</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="33">
-        <v>0</v>
-      </c>
-      <c r="E34" s="33">
-        <v>0</v>
-      </c>
-      <c r="F34" s="33">
-        <v>2</v>
-      </c>
-      <c r="G34" s="33">
-        <v>2</v>
-      </c>
-      <c r="H34" s="33">
-        <v>2</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="B34" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="40">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>2</v>
+      </c>
+      <c r="G34" s="32">
+        <v>2</v>
+      </c>
+      <c r="H34" s="32">
+        <v>2</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2666,12 +2691,12 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="25">
         <v>0</v>
       </c>
       <c r="F35" s="27">
@@ -2684,34 +2709,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
+    <row r="36" spans="1:9" s="31" customFormat="1">
+      <c r="A36" s="31">
         <v>18</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="B36" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="31">
+        <v>0</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>2</v>
+      </c>
+      <c r="G36" s="31">
+        <v>2</v>
+      </c>
+      <c r="H36" s="31">
+        <v>2</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
         <v>18</v>
       </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="25">
         <v>1</v>
       </c>
       <c r="F37">
@@ -2731,7 +2771,7 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="25">
         <v>2</v>
       </c>
       <c r="F38">
@@ -2751,7 +2791,7 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="25">
         <v>2</v>
       </c>
       <c r="F39" s="27">
@@ -2771,7 +2811,7 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="25">
         <v>3</v>
       </c>
       <c r="F40" s="27">
@@ -2791,7 +2831,7 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="25">
         <v>3</v>
       </c>
       <c r="F41" s="27">
@@ -2811,7 +2851,7 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="25">
         <v>4</v>
       </c>
       <c r="F42" s="27">
@@ -2831,7 +2871,7 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="25">
         <v>4</v>
       </c>
       <c r="F43" s="27">
@@ -2851,7 +2891,7 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="25">
         <v>5</v>
       </c>
       <c r="F44" s="27">
@@ -2871,7 +2911,7 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="25">
         <v>5</v>
       </c>
       <c r="F45" s="27">
@@ -2891,7 +2931,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="25">
         <v>6</v>
       </c>
       <c r="F46" s="27">
@@ -2911,7 +2951,7 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="25">
         <v>6</v>
       </c>
       <c r="F47" s="27">
@@ -2931,7 +2971,7 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="25">
         <v>7</v>
       </c>
       <c r="F48" s="27">
@@ -2951,7 +2991,7 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="25">
         <v>7</v>
       </c>
       <c r="F49" s="27">
@@ -2971,7 +3011,7 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="25">
         <v>8</v>
       </c>
       <c r="F50" s="27">
@@ -2991,7 +3031,7 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="25">
         <v>8</v>
       </c>
       <c r="F51" s="27">
@@ -3011,7 +3051,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="25">
         <v>9</v>
       </c>
       <c r="F52" s="27">
@@ -3031,7 +3071,7 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="25">
         <v>9</v>
       </c>
       <c r="F53" s="27">
@@ -3044,62 +3084,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="30" customFormat="1">
-      <c r="A54" s="30">
+    <row r="54" spans="1:9" s="29" customFormat="1">
+      <c r="A54" s="29">
         <v>27</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="30">
-        <v>0</v>
-      </c>
-      <c r="E54" s="30">
+      <c r="D54" s="29">
+        <v>0</v>
+      </c>
+      <c r="E54" s="41">
         <v>10</v>
       </c>
-      <c r="F54" s="30">
-        <v>2</v>
-      </c>
-      <c r="G54" s="30">
-        <v>2</v>
-      </c>
-      <c r="H54" s="30">
-        <v>2</v>
-      </c>
-      <c r="I54" s="30" t="s">
+      <c r="F54" s="29">
+        <v>2</v>
+      </c>
+      <c r="G54" s="29">
+        <v>2</v>
+      </c>
+      <c r="H54" s="29">
+        <v>2</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="32" customFormat="1">
-      <c r="A55" s="32">
+    <row r="55" spans="1:9" s="30" customFormat="1">
+      <c r="A55" s="30">
         <v>27</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="32">
-        <v>1</v>
-      </c>
-      <c r="E55" s="32">
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+      <c r="E55" s="37">
         <v>10</v>
       </c>
-      <c r="F55" s="32">
-        <v>1</v>
-      </c>
-      <c r="G55" s="32">
-        <v>1</v>
-      </c>
-      <c r="H55" s="32">
-        <v>1</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>58</v>
+      <c r="F55" s="30">
+        <v>1</v>
+      </c>
+      <c r="G55" s="30">
+        <v>1</v>
+      </c>
+      <c r="H55" s="30">
+        <v>1</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3109,7 +3149,7 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="25">
         <v>11</v>
       </c>
       <c r="F56" s="27">
@@ -3129,7 +3169,7 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="25">
         <v>11</v>
       </c>
       <c r="F57" s="27">
@@ -3149,7 +3189,7 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="25">
         <v>12</v>
       </c>
       <c r="F58" s="27">
@@ -3169,7 +3209,7 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="25">
         <v>12</v>
       </c>
       <c r="F59" s="27">
@@ -3189,7 +3229,7 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="25">
         <v>13</v>
       </c>
       <c r="F60" s="27">
@@ -3209,7 +3249,7 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="25">
         <v>13</v>
       </c>
       <c r="F61" s="27">
@@ -3229,7 +3269,7 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="25">
         <v>14</v>
       </c>
       <c r="F62" s="27">
@@ -3249,7 +3289,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="25">
         <v>14</v>
       </c>
       <c r="F63" s="27">
@@ -3269,7 +3309,7 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="25">
         <v>15</v>
       </c>
       <c r="F64" s="27">
@@ -3289,7 +3329,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="25">
         <v>15</v>
       </c>
       <c r="F65" s="27">
@@ -3314,5 +3354,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2601BEE-9FB9-4917-B818-707E6AFB5720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175AA00E-D0E6-4C68-A98A-C31ED477829B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Col1</t>
   </si>
@@ -211,18 +211,6 @@
     <t>sent</t>
   </si>
   <si>
-    <t>mohamed mantawy</t>
-  </si>
-  <si>
-    <t>17.Mar 13:00</t>
-  </si>
-  <si>
-    <t>17.Mar 17:00</t>
-  </si>
-  <si>
-    <t>20.Mar 11:00</t>
-  </si>
-  <si>
     <t>Natalia Pfeuffer</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
   </si>
   <si>
     <t>17.Mar 16:00</t>
-  </si>
-  <si>
-    <t>Umer Saeed</t>
   </si>
   <si>
     <t>18.Mar 18:00</t>
@@ -1736,7 +1721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1943,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="30">
         <v>1</v>
@@ -1972,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2288,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
@@ -2317,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2341,10 +2326,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D22" s="30">
         <v>1</v>
@@ -2370,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2393,10 +2378,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
@@ -2422,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2498,33 +2483,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="31" customFormat="1">
-      <c r="A28" s="31">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="31">
-        <v>1</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25">
         <v>13</v>
       </c>
-      <c r="F28" s="31">
-        <v>1</v>
-      </c>
-      <c r="G28" s="31">
-        <v>1</v>
-      </c>
-      <c r="H28" s="31">
-        <v>1</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>58</v>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2552,10 +2528,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
@@ -2581,10 +2557,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2607,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" s="31">
         <v>1</v>
@@ -2636,10 +2612,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2662,10 +2638,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="32">
         <v>0</v>
@@ -2691,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2709,44 +2685,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="31" customFormat="1">
-      <c r="A36" s="31">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="31">
-        <v>0</v>
-      </c>
-      <c r="E36" s="39">
-        <v>1</v>
-      </c>
-      <c r="F36" s="31">
-        <v>2</v>
-      </c>
-      <c r="G36" s="31">
-        <v>2</v>
-      </c>
-      <c r="H36" s="31">
-        <v>2</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>58</v>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
         <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175AA00E-D0E6-4C68-A98A-C31ED477829B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588E637-583E-48F7-93FC-F24AEFC7AE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>12.Mar 17:00</t>
   </si>
   <si>
-    <t>16.Mar 18:00</t>
-  </si>
-  <si>
     <t>sent</t>
   </si>
   <si>
@@ -257,13 +254,16 @@
   </si>
   <si>
     <t>18.Mar 19:00</t>
+  </si>
+  <si>
+    <t>17.Mar 18:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -324,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,11 +332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,13 +534,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -586,21 +573,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1720,8 +1705,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,7 +1733,7 @@
       <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1780,7 +1765,7 @@
       <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="34">
         <v>0</v>
       </c>
       <c r="F2" s="26">
@@ -1809,7 +1794,7 @@
       <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>0</v>
       </c>
       <c r="F3" s="28">
@@ -1838,7 +1823,7 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>1</v>
       </c>
       <c r="F4" s="26">
@@ -1867,7 +1852,7 @@
       <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
       <c r="F5" s="28">
@@ -1928,15 +1913,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D8" s="30">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
       <c r="F8" s="30">
@@ -1957,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1991,7 +1976,7 @@
       <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
       <c r="F10" s="26">
@@ -2020,7 +2005,7 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>4</v>
       </c>
       <c r="F11" s="30">
@@ -2049,7 +2034,7 @@
       <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>5</v>
       </c>
       <c r="F12" s="26">
@@ -2078,7 +2063,7 @@
       <c r="D13" s="30">
         <v>0</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>5</v>
       </c>
       <c r="F13" s="30">
@@ -2107,7 +2092,7 @@
       <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>6</v>
       </c>
       <c r="F14" s="28">
@@ -2136,7 +2121,7 @@
       <c r="D15" s="30">
         <v>0</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>6</v>
       </c>
       <c r="F15" s="30">
@@ -2165,7 +2150,7 @@
       <c r="D16" s="30">
         <v>1</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>7</v>
       </c>
       <c r="F16" s="30">
@@ -2194,7 +2179,7 @@
       <c r="D17" s="30">
         <v>0</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>7</v>
       </c>
       <c r="F17" s="30">
@@ -2223,7 +2208,7 @@
       <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>8</v>
       </c>
       <c r="F18" s="28">
@@ -2252,7 +2237,7 @@
       <c r="D19" s="30">
         <v>0</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>8</v>
       </c>
       <c r="F19" s="30">
@@ -2273,15 +2258,15 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <v>9</v>
       </c>
       <c r="F20" s="26">
@@ -2302,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2326,15 +2311,15 @@
         <v>11</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" s="30">
         <v>1</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>10</v>
       </c>
       <c r="F22" s="30">
@@ -2355,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2378,15 +2363,15 @@
         <v>12</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>11</v>
       </c>
       <c r="F24" s="30">
@@ -2407,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2438,7 +2423,7 @@
       <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>12</v>
       </c>
       <c r="F26" s="28">
@@ -2454,33 +2439,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="33" customFormat="1">
-      <c r="A27" s="33">
+    <row r="27" spans="1:10" s="32" customFormat="1">
+      <c r="A27" s="32">
         <v>13</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
+        <v>12</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2</v>
+      </c>
+      <c r="G27" s="32">
+        <v>2</v>
+      </c>
+      <c r="H27" s="32">
+        <v>2</v>
+      </c>
+      <c r="I27" s="32" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" s="33">
-        <v>0</v>
-      </c>
-      <c r="E27" s="38">
-        <v>12</v>
-      </c>
-      <c r="F27" s="33">
-        <v>2</v>
-      </c>
-      <c r="G27" s="33">
-        <v>2</v>
-      </c>
-      <c r="H27" s="33">
-        <v>2</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2528,15 +2513,15 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>14</v>
       </c>
       <c r="F30" s="26">
@@ -2557,10 +2542,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2578,33 +2563,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="31" customFormat="1">
-      <c r="A32" s="31">
+    <row r="32" spans="1:10" s="40" customFormat="1">
+      <c r="A32" s="40">
         <v>16</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1</v>
-      </c>
-      <c r="E32" s="39">
+      <c r="D32" s="40">
+        <v>1</v>
+      </c>
+      <c r="E32" s="40">
         <v>15</v>
       </c>
-      <c r="F32" s="31">
-        <v>1</v>
-      </c>
-      <c r="G32" s="31">
-        <v>1</v>
-      </c>
-      <c r="H32" s="31">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>58</v>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2612,10 +2597,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2633,32 +2618,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="32" customFormat="1">
-      <c r="A34" s="32">
+    <row r="34" spans="1:9" s="31" customFormat="1">
+      <c r="A34" s="31">
         <v>17</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="32">
-        <v>0</v>
-      </c>
-      <c r="E34" s="40">
-        <v>0</v>
-      </c>
-      <c r="F34" s="32">
-        <v>2</v>
-      </c>
-      <c r="G34" s="32">
-        <v>2</v>
-      </c>
-      <c r="H34" s="32">
-        <v>2</v>
-      </c>
-      <c r="I34" s="32" t="s">
+      <c r="D34" s="31">
+        <v>0</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0</v>
+      </c>
+      <c r="F34" s="31">
+        <v>2</v>
+      </c>
+      <c r="G34" s="31">
+        <v>2</v>
+      </c>
+      <c r="H34" s="31">
+        <v>2</v>
+      </c>
+      <c r="I34" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2667,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3058,7 +3043,7 @@
       <c r="D54" s="29">
         <v>0</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="39">
         <v>10</v>
       </c>
       <c r="F54" s="29">
@@ -3087,7 +3072,7 @@
       <c r="D55" s="30">
         <v>1</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="36">
         <v>10</v>
       </c>
       <c r="F55" s="30">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588E637-583E-48F7-93FC-F24AEFC7AE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD19230-5F5B-4D5C-A7CB-99AE81B526B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -582,7 +582,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1706,7 +1705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2563,33 +2562,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="40" customFormat="1">
-      <c r="A32" s="40">
+    <row r="32" spans="1:10" s="30" customFormat="1">
+      <c r="A32" s="30">
         <v>16</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="40">
-        <v>1</v>
-      </c>
-      <c r="E32" s="40">
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30">
         <v>15</v>
       </c>
-      <c r="F32" s="40">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
-        <v>1</v>
-      </c>
-      <c r="H32" s="40">
-        <v>1</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>57</v>
+      <c r="F32" s="30">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1</v>
+      </c>
+      <c r="H32" s="30">
+        <v>1</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD19230-5F5B-4D5C-A7CB-99AE81B526B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC3D9C-8E92-4F6F-88BF-9C65F2BA4980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>Col1</t>
   </si>
@@ -1704,8 +1704,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1936,30 +1936,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:10" s="32" customFormat="1">
+      <c r="A9" s="32">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
+      <c r="F9" s="32">
+        <v>2</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1">
@@ -2591,30 +2594,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
+    <row r="33" spans="1:9" s="32" customFormat="1">
+      <c r="A33" s="32">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="25">
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+      <c r="E33" s="32">
         <v>15</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
+      <c r="F33" s="32">
+        <v>2</v>
+      </c>
+      <c r="G33" s="32">
+        <v>2</v>
+      </c>
+      <c r="H33" s="32">
+        <v>2</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="31" customFormat="1">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC3D9C-8E92-4F6F-88BF-9C65F2BA4980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768294C-6AEC-406C-AF4F-B01E5C39FFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -579,7 +579,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1704,8 +1703,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2441,33 +2440,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="32" customFormat="1">
-      <c r="A27" s="32">
+    <row r="27" spans="1:10" s="26" customFormat="1">
+      <c r="A27" s="26">
         <v>13</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
         <v>12</v>
       </c>
-      <c r="F27" s="32">
-        <v>2</v>
-      </c>
-      <c r="G27" s="32">
-        <v>2</v>
-      </c>
-      <c r="H27" s="32">
-        <v>2</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>57</v>
+      <c r="F27" s="26">
+        <v>2</v>
+      </c>
+      <c r="G27" s="26">
+        <v>2</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2636,7 +2635,7 @@
       <c r="D34" s="31">
         <v>0</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>0</v>
       </c>
       <c r="F34" s="31">
@@ -3048,7 +3047,7 @@
       <c r="D54" s="29">
         <v>0</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="38">
         <v>10</v>
       </c>
       <c r="F54" s="29">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768294C-6AEC-406C-AF4F-B01E5C39FFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197AB11-6DF7-4E76-8223-0996007A4FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
   <si>
     <t>Col1</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>12.Mar 17:00</t>
-  </si>
-  <si>
-    <t>sent</t>
   </si>
   <si>
     <t>Natalia Pfeuffer</t>
@@ -263,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,14 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -317,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,11 +316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -534,12 +518,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -574,17 +557,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1703,8 +1684,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,7 +1712,7 @@
       <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1763,7 +1744,7 @@
       <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>0</v>
       </c>
       <c r="F2" s="26">
@@ -1792,7 +1773,7 @@
       <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>0</v>
       </c>
       <c r="F3" s="28">
@@ -1821,7 +1802,7 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>1</v>
       </c>
       <c r="F4" s="26">
@@ -1850,7 +1831,7 @@
       <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>1</v>
       </c>
       <c r="F5" s="28">
@@ -1911,15 +1892,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="30">
         <v>1</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>3</v>
       </c>
       <c r="F8" s="30">
@@ -1935,33 +1916,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="32" customFormat="1">
-      <c r="A9" s="32">
+    <row r="9" spans="1:10" s="26" customFormat="1">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
         <v>3</v>
       </c>
-      <c r="F9" s="32">
-        <v>2</v>
-      </c>
-      <c r="G9" s="32">
-        <v>2</v>
-      </c>
-      <c r="H9" s="32">
-        <v>2</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>57</v>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+      <c r="H9" s="26">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1">
@@ -1977,7 +1958,7 @@
       <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10" s="26">
@@ -2006,7 +1987,7 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>4</v>
       </c>
       <c r="F11" s="30">
@@ -2035,7 +2016,7 @@
       <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <v>5</v>
       </c>
       <c r="F12" s="26">
@@ -2064,7 +2045,7 @@
       <c r="D13" s="30">
         <v>0</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>5</v>
       </c>
       <c r="F13" s="30">
@@ -2093,7 +2074,7 @@
       <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>6</v>
       </c>
       <c r="F14" s="28">
@@ -2122,7 +2103,7 @@
       <c r="D15" s="30">
         <v>0</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>6</v>
       </c>
       <c r="F15" s="30">
@@ -2151,7 +2132,7 @@
       <c r="D16" s="30">
         <v>1</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>7</v>
       </c>
       <c r="F16" s="30">
@@ -2180,7 +2161,7 @@
       <c r="D17" s="30">
         <v>0</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>7</v>
       </c>
       <c r="F17" s="30">
@@ -2209,7 +2190,7 @@
       <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>8</v>
       </c>
       <c r="F18" s="28">
@@ -2238,7 +2219,7 @@
       <c r="D19" s="30">
         <v>0</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>8</v>
       </c>
       <c r="F19" s="30">
@@ -2259,15 +2240,15 @@
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>9</v>
       </c>
       <c r="F20" s="26">
@@ -2288,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2312,15 +2293,15 @@
         <v>11</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="30">
         <v>1</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>10</v>
       </c>
       <c r="F22" s="30">
@@ -2341,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2364,15 +2345,15 @@
         <v>12</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>11</v>
       </c>
       <c r="F24" s="30">
@@ -2393,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2424,7 +2405,7 @@
       <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <v>12</v>
       </c>
       <c r="F26" s="28">
@@ -2448,7 +2429,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="26">
         <v>0</v>
@@ -2514,15 +2495,15 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <v>14</v>
       </c>
       <c r="F30" s="26">
@@ -2543,10 +2524,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2569,10 +2550,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="30">
         <v>1</v>
@@ -2593,33 +2574,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1">
-      <c r="A33" s="32">
+    <row r="33" spans="1:9" s="26" customFormat="1">
+      <c r="A33" s="26">
         <v>16</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="32">
-        <v>0</v>
-      </c>
-      <c r="E33" s="32">
+      <c r="B33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
         <v>15</v>
       </c>
-      <c r="F33" s="32">
-        <v>2</v>
-      </c>
-      <c r="G33" s="32">
-        <v>2</v>
-      </c>
-      <c r="H33" s="32">
-        <v>2</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>57</v>
+      <c r="F33" s="26">
+        <v>2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>2</v>
+      </c>
+      <c r="H33" s="26">
+        <v>2</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="31" customFormat="1">
@@ -2627,15 +2608,15 @@
         <v>17</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>65</v>
-      </c>
       <c r="D34" s="31">
         <v>0</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>0</v>
       </c>
       <c r="F34" s="31">
@@ -2656,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3047,7 +3028,7 @@
       <c r="D54" s="29">
         <v>0</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="37">
         <v>10</v>
       </c>
       <c r="F54" s="29">
@@ -3076,7 +3057,7 @@
       <c r="D55" s="30">
         <v>1</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <v>10</v>
       </c>
       <c r="F55" s="30">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Ruoyu MT\MasterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197AB11-6DF7-4E76-8223-0996007A4FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF783348-7867-4508-B77B-26938C3046C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
   <si>
     <t>Col1</t>
   </si>
@@ -254,13 +254,23 @@
   </si>
   <si>
     <t>17.Mar 18:00</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>S = sad, A = angry, H = happy, E = exciting
+v = video, a = audio, i = image, r = autobiographical-recall</t>
+  </si>
+  <si>
+    <t>12.Jun 17:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +315,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +343,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -517,16 +547,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -563,10 +607,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,88 +896,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="N1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -934,13 +995,13 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>4</v>
       </c>
       <c r="I3" s="1">
@@ -949,24 +1010,24 @@
       <c r="J3" s="1">
         <v>6</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>7</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="N3" s="37">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -975,13 +1036,13 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>8</v>
       </c>
       <c r="I4" s="1">
@@ -990,127 +1051,127 @@
       <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>11</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="N4" s="37">
+        <v>1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>2</v>
+      </c>
+      <c r="P4" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>12</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>13</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>14</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="17">
         <v>15</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="N5" s="37">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
+        <v>2</v>
+      </c>
+      <c r="P5" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="K6" s="14"/>
+      <c r="N6" s="37">
+        <v>2</v>
+      </c>
+      <c r="O6" s="38">
+        <v>1</v>
+      </c>
+      <c r="P6" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="23">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>2</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2</v>
+      </c>
+      <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="N7" s="37">
+        <v>2</v>
+      </c>
+      <c r="O7" s="38">
+        <v>1</v>
+      </c>
+      <c r="P7" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="23">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1119,13 +1180,13 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
         <v>4</v>
       </c>
       <c r="I8" s="1">
@@ -1134,24 +1195,24 @@
       <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>7</v>
       </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="N8" s="37">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38">
+        <v>2</v>
+      </c>
+      <c r="P8" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1160,13 +1221,13 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="23">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="21">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
         <v>8</v>
       </c>
       <c r="I9" s="1">
@@ -1175,24 +1236,24 @@
       <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>11</v>
       </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1201,13 +1262,13 @@
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>3</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>12</v>
       </c>
       <c r="I10" s="1">
@@ -1216,15 +1277,15 @@
       <c r="J10" s="1">
         <v>14</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1233,13 +1294,13 @@
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>4</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <f>H2</f>
         <v>0</v>
       </c>
@@ -1251,16 +1312,16 @@
         <f>H4</f>
         <v>8</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f>H5</f>
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1269,13 +1330,13 @@
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>5</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1284,15 +1345,15 @@
       <c r="J12" s="1">
         <v>9</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1301,13 +1362,13 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>6</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1316,15 +1377,15 @@
       <c r="J13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="23">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1333,13 +1394,13 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>7</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1348,15 +1409,15 @@
       <c r="J14" s="1">
         <v>11</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="13" t="str">
         <f>E2</f>
         <v>Er</v>
       </c>
@@ -1368,14 +1429,14 @@
         <f>C2</f>
         <v>Aa</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="14" t="str">
         <f>B2</f>
         <v>Sv</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>8</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f>K2</f>
         <v>3</v>
       </c>
@@ -1387,16 +1448,16 @@
         <f>I2</f>
         <v>1</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="13" t="str">
         <f t="shared" ref="B16:B18" si="0">E3</f>
         <v>Si</v>
       </c>
@@ -1408,14 +1469,14 @@
         <f t="shared" ref="D16:D18" si="2">C3</f>
         <v>Hv</v>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="14" t="str">
         <f t="shared" ref="E16:E18" si="3">B3</f>
         <v>Ar</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <v>9</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <f t="shared" ref="H16:H18" si="4">K3</f>
         <v>7</v>
       </c>
@@ -1427,16 +1488,16 @@
         <f t="shared" ref="J16:J18" si="6">I3</f>
         <v>5</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <f t="shared" ref="K16:K18" si="7">H3</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="23">
+    <row r="17" spans="1:17">
+      <c r="A17" s="21">
         <v>10</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Av</v>
       </c>
@@ -1448,14 +1509,14 @@
         <f t="shared" si="2"/>
         <v>Ei</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Ha</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>10</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -1467,16 +1528,21 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="23">
+      <c r="O17" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ha</v>
       </c>
@@ -1488,14 +1554,14 @@
         <f t="shared" si="2"/>
         <v>Sr</v>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Ei</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>11</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -1507,16 +1573,19 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="23">
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="21">
         <v>12</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="13" t="str">
         <f>E11</f>
         <v>Ei</v>
       </c>
@@ -1528,14 +1597,14 @@
         <f>C11</f>
         <v>Ar</v>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="14" t="str">
         <f>B11</f>
         <v>Sv</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>12</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <f>K11</f>
         <v>12</v>
       </c>
@@ -1547,16 +1616,19 @@
         <f>I11</f>
         <v>4</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <f>H11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="23">
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="21">
         <v>13</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="13" t="str">
         <f t="shared" ref="B20:B22" si="8">E12</f>
         <v>Sr</v>
       </c>
@@ -1568,14 +1640,14 @@
         <f t="shared" ref="D20:D22" si="10">C12</f>
         <v>Hv</v>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="14" t="str">
         <f t="shared" ref="E20:E22" si="11">B12</f>
         <v>Aa</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>13</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <f t="shared" ref="H20:H22" si="12">K12</f>
         <v>13</v>
       </c>
@@ -1587,16 +1659,19 @@
         <f t="shared" ref="J20:J22" si="14">I12</f>
         <v>5</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="23">
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="21">
         <v>14</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="13" t="str">
         <f t="shared" si="8"/>
         <v>Av</v>
       </c>
@@ -1608,14 +1683,14 @@
         <f t="shared" si="10"/>
         <v>Ea</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="14" t="str">
         <f t="shared" si="11"/>
         <v>Hi</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>14</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
@@ -1627,52 +1702,58 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="14">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="24">
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="22">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Ha</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Av</v>
       </c>
-      <c r="D22" s="18" t="str">
+      <c r="D22" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Si</v>
       </c>
-      <c r="E22" s="19" t="str">
+      <c r="E22" s="17" t="str">
         <f t="shared" si="11"/>
         <v>Er</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <v>15</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="17">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O17:Q21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1684,8 +1765,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1694,156 +1775,156 @@
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:10" s="24" customFormat="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
-        <v>1</v>
-      </c>
-      <c r="G2" s="26">
-        <v>1</v>
-      </c>
-      <c r="H2" s="26">
-        <v>1</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="28" customFormat="1">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:10" s="26" customFormat="1">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="28">
-        <v>2</v>
-      </c>
-      <c r="G3" s="28">
-        <v>2</v>
-      </c>
-      <c r="H3" s="28">
-        <v>2</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26">
+        <v>2</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:10" s="24" customFormat="1">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="33">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="26">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="28" customFormat="1">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:10" s="26" customFormat="1">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28">
-        <v>2</v>
-      </c>
-      <c r="G5" s="28">
-        <v>2</v>
-      </c>
-      <c r="H5" s="28">
-        <v>2</v>
-      </c>
-      <c r="I5" s="28" t="s">
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26">
+        <v>2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>2</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1854,7 +1935,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
       <c r="F6">
@@ -1874,7 +1955,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>2</v>
       </c>
       <c r="F7">
@@ -1887,380 +1968,380 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="30" customFormat="1">
-      <c r="A8" s="30">
+    <row r="8" spans="1:10" s="28" customFormat="1">
+      <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
         <v>3</v>
       </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="30">
-        <v>1</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="26" customFormat="1">
-      <c r="A9" s="26">
+    <row r="9" spans="1:10" s="24" customFormat="1">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
         <v>3</v>
       </c>
-      <c r="F9" s="26">
-        <v>2</v>
-      </c>
-      <c r="G9" s="26">
-        <v>2</v>
-      </c>
-      <c r="H9" s="26">
-        <v>2</v>
-      </c>
-      <c r="I9" s="26" t="s">
+      <c r="F9" s="24">
+        <v>2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1">
-      <c r="A10" s="26">
+    <row r="10" spans="1:10" s="24" customFormat="1">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="30" customFormat="1">
-      <c r="A11" s="30">
+    <row r="11" spans="1:10" s="28" customFormat="1">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
         <v>4</v>
       </c>
-      <c r="F11" s="30">
-        <v>2</v>
-      </c>
-      <c r="G11" s="30">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30">
-        <v>2</v>
-      </c>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="28">
+        <v>2</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2</v>
+      </c>
+      <c r="H11" s="28">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1">
-      <c r="A12" s="26">
+    <row r="12" spans="1:10" s="24" customFormat="1">
+      <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
         <v>5</v>
       </c>
-      <c r="F12" s="26">
-        <v>1</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="26" t="s">
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="30" customFormat="1">
-      <c r="A13" s="30">
+    <row r="13" spans="1:10" s="28" customFormat="1">
+      <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
         <v>5</v>
       </c>
-      <c r="F13" s="30">
-        <v>2</v>
-      </c>
-      <c r="G13" s="30">
-        <v>2</v>
-      </c>
-      <c r="H13" s="30">
-        <v>2</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="F13" s="28">
+        <v>2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>2</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="28" customFormat="1">
-      <c r="A14" s="28">
+    <row r="14" spans="1:10" s="26" customFormat="1">
+      <c r="A14" s="26">
         <v>7</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
         <v>6</v>
       </c>
-      <c r="F14" s="28">
-        <v>1</v>
-      </c>
-      <c r="G14" s="28">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28">
-        <v>1</v>
-      </c>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="30" customFormat="1">
-      <c r="A15" s="30">
+    <row r="15" spans="1:10" s="28" customFormat="1">
+      <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
         <v>6</v>
       </c>
-      <c r="F15" s="30">
-        <v>2</v>
-      </c>
-      <c r="G15" s="30">
-        <v>2</v>
-      </c>
-      <c r="H15" s="30">
-        <v>2</v>
-      </c>
-      <c r="I15" s="30" t="s">
+      <c r="F15" s="28">
+        <v>2</v>
+      </c>
+      <c r="G15" s="28">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>2</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="30" customFormat="1">
-      <c r="A16" s="30">
+    <row r="16" spans="1:10" s="28" customFormat="1">
+      <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-      <c r="E16" s="35">
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
         <v>7</v>
       </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30">
-        <v>1</v>
-      </c>
-      <c r="I16" s="30" t="s">
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="30" customFormat="1">
-      <c r="A17" s="30">
+    <row r="17" spans="1:10" s="28" customFormat="1">
+      <c r="A17" s="28">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
         <v>7</v>
       </c>
-      <c r="F17" s="30">
-        <v>2</v>
-      </c>
-      <c r="G17" s="30">
-        <v>2</v>
-      </c>
-      <c r="H17" s="30">
-        <v>2</v>
-      </c>
-      <c r="I17" s="30" t="s">
+      <c r="F17" s="28">
+        <v>2</v>
+      </c>
+      <c r="G17" s="28">
+        <v>2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="28" customFormat="1">
-      <c r="A18" s="28">
+    <row r="18" spans="1:10" s="26" customFormat="1">
+      <c r="A18" s="26">
         <v>9</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
         <v>8</v>
       </c>
-      <c r="F18" s="28">
-        <v>1</v>
-      </c>
-      <c r="G18" s="28">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28">
-        <v>1</v>
-      </c>
-      <c r="I18" s="28" t="s">
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="30" customFormat="1">
-      <c r="A19" s="30">
+    <row r="19" spans="1:10" s="28" customFormat="1">
+      <c r="A19" s="28">
         <v>9</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
         <v>8</v>
       </c>
-      <c r="F19" s="30">
-        <v>2</v>
-      </c>
-      <c r="G19" s="30">
-        <v>2</v>
-      </c>
-      <c r="H19" s="30">
-        <v>2</v>
-      </c>
-      <c r="I19" s="30" t="s">
+      <c r="F19" s="28">
+        <v>2</v>
+      </c>
+      <c r="G19" s="28">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>2</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1">
-      <c r="A20" s="26">
+    <row r="20" spans="1:10" s="24" customFormat="1">
+      <c r="A20" s="24">
         <v>10</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
         <v>9</v>
       </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26" t="s">
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2274,7 +2355,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>9</v>
       </c>
       <c r="F21">
@@ -2286,34 +2367,34 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" s="30" customFormat="1">
-      <c r="A22" s="30">
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1">
+      <c r="A22" s="28">
         <v>11</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="30">
-        <v>1</v>
-      </c>
-      <c r="E22" s="35">
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33">
         <v>10</v>
       </c>
-      <c r="F22" s="30">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30">
-        <v>1</v>
-      </c>
-      <c r="H22" s="30">
-        <v>1</v>
-      </c>
-      <c r="I22" s="30" t="s">
+      <c r="F22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2321,13 +2402,13 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <v>10</v>
       </c>
       <c r="F23">
@@ -2340,32 +2421,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="30" customFormat="1">
-      <c r="A24" s="30">
+    <row r="24" spans="1:10" s="28" customFormat="1">
+      <c r="A24" s="28">
         <v>12</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="30">
-        <v>1</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33">
         <v>11</v>
       </c>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30">
-        <v>1</v>
-      </c>
-      <c r="I24" s="30" t="s">
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28">
+        <v>1</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2373,13 +2454,13 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>11</v>
       </c>
       <c r="F25">
@@ -2392,61 +2473,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="28" customFormat="1">
-      <c r="A26" s="28">
+    <row r="26" spans="1:10" s="26" customFormat="1">
+      <c r="A26" s="26">
         <v>13</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="34">
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
         <v>12</v>
       </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28">
-        <v>1</v>
-      </c>
-      <c r="H26" s="28">
-        <v>1</v>
-      </c>
-      <c r="I26" s="28" t="s">
+      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="26" customFormat="1">
-      <c r="A27" s="26">
+    <row r="27" spans="1:10" s="24" customFormat="1">
+      <c r="A27" s="24">
         <v>13</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="26">
-        <v>0</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
         <v>12</v>
       </c>
-      <c r="F27" s="26">
-        <v>2</v>
-      </c>
-      <c r="G27" s="26">
-        <v>2</v>
-      </c>
-      <c r="H27" s="26">
-        <v>2</v>
-      </c>
-      <c r="I27" s="26" t="s">
+      <c r="F27" s="24">
+        <v>2</v>
+      </c>
+      <c r="G27" s="24">
+        <v>2</v>
+      </c>
+      <c r="H27" s="24">
+        <v>2</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2457,7 +2538,7 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>13</v>
       </c>
       <c r="F28">
@@ -2477,7 +2558,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>13</v>
       </c>
       <c r="F29">
@@ -2490,32 +2571,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1">
-      <c r="A30" s="26">
+    <row r="30" spans="1:10" s="24" customFormat="1">
+      <c r="A30" s="24">
         <v>15</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="26">
-        <v>1</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31">
         <v>14</v>
       </c>
-      <c r="F30" s="26">
-        <v>1</v>
-      </c>
-      <c r="G30" s="26">
-        <v>1</v>
-      </c>
-      <c r="H30" s="26">
-        <v>1</v>
-      </c>
-      <c r="I30" s="26" t="s">
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2532,7 +2613,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <v>14</v>
       </c>
       <c r="F31">
@@ -2545,104 +2626,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="30" customFormat="1">
-      <c r="A32" s="30">
+    <row r="32" spans="1:10" s="28" customFormat="1">
+      <c r="A32" s="28">
         <v>16</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="30">
-        <v>1</v>
-      </c>
-      <c r="E32" s="30">
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
+      <c r="E32" s="28">
         <v>15</v>
       </c>
-      <c r="F32" s="30">
-        <v>1</v>
-      </c>
-      <c r="G32" s="30">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30">
-        <v>1</v>
-      </c>
-      <c r="I32" s="30" t="s">
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="26" customFormat="1">
-      <c r="A33" s="26">
+    <row r="33" spans="1:9" s="24" customFormat="1">
+      <c r="A33" s="24">
         <v>16</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
         <v>15</v>
       </c>
-      <c r="F33" s="26">
-        <v>2</v>
-      </c>
-      <c r="G33" s="26">
-        <v>2</v>
-      </c>
-      <c r="H33" s="26">
-        <v>2</v>
-      </c>
-      <c r="I33" s="26" t="s">
+      <c r="F33" s="24">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>2</v>
+      </c>
+      <c r="H33" s="24">
+        <v>2</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="31" customFormat="1">
-      <c r="A34" s="31">
+    <row r="34" spans="1:9" s="29" customFormat="1">
+      <c r="A34" s="29">
         <v>17</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="31">
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
-        <v>0</v>
-      </c>
-      <c r="F34" s="31">
-        <v>2</v>
-      </c>
-      <c r="G34" s="31">
-        <v>2</v>
-      </c>
-      <c r="H34" s="31">
-        <v>2</v>
-      </c>
-      <c r="I34" s="31" t="s">
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29">
+        <v>2</v>
+      </c>
+      <c r="G34" s="29">
+        <v>2</v>
+      </c>
+      <c r="H34" s="29">
+        <v>2</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
+    <row r="35" spans="1:9" s="24" customFormat="1">
+      <c r="A35" s="24">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="25">
+      <c r="C35" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
         <v>0</v>
       </c>
       <c r="F35" s="27">
@@ -2653,6 +2737,9 @@
       </c>
       <c r="H35" s="27">
         <v>1</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2662,7 +2749,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>1</v>
       </c>
       <c r="F36">
@@ -2682,7 +2769,7 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <v>1</v>
       </c>
       <c r="F37">
@@ -2702,7 +2789,7 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38">
@@ -2722,16 +2809,16 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="25">
-        <v>2</v>
-      </c>
-      <c r="F39" s="27">
-        <v>1</v>
-      </c>
-      <c r="G39" s="27">
-        <v>1</v>
-      </c>
-      <c r="H39" s="27">
+      <c r="E39" s="23">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2742,16 +2829,16 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>3</v>
       </c>
-      <c r="F40" s="27">
-        <v>2</v>
-      </c>
-      <c r="G40" s="27">
-        <v>2</v>
-      </c>
-      <c r="H40" s="27">
+      <c r="F40" s="25">
+        <v>2</v>
+      </c>
+      <c r="G40" s="25">
+        <v>2</v>
+      </c>
+      <c r="H40" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2762,16 +2849,16 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="23">
         <v>3</v>
       </c>
-      <c r="F41" s="27">
-        <v>1</v>
-      </c>
-      <c r="G41" s="27">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27">
+      <c r="F41" s="25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2782,16 +2869,16 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <v>4</v>
       </c>
-      <c r="F42" s="27">
-        <v>2</v>
-      </c>
-      <c r="G42" s="27">
-        <v>2</v>
-      </c>
-      <c r="H42" s="27">
+      <c r="F42" s="25">
+        <v>2</v>
+      </c>
+      <c r="G42" s="25">
+        <v>2</v>
+      </c>
+      <c r="H42" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2802,16 +2889,16 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="23">
         <v>4</v>
       </c>
-      <c r="F43" s="27">
-        <v>1</v>
-      </c>
-      <c r="G43" s="27">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27">
+      <c r="F43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2822,16 +2909,16 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="23">
         <v>5</v>
       </c>
-      <c r="F44" s="27">
-        <v>2</v>
-      </c>
-      <c r="G44" s="27">
-        <v>2</v>
-      </c>
-      <c r="H44" s="27">
+      <c r="F44" s="25">
+        <v>2</v>
+      </c>
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2842,16 +2929,16 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <v>5</v>
       </c>
-      <c r="F45" s="27">
-        <v>1</v>
-      </c>
-      <c r="G45" s="27">
-        <v>1</v>
-      </c>
-      <c r="H45" s="27">
+      <c r="F45" s="25">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2862,16 +2949,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="23">
         <v>6</v>
       </c>
-      <c r="F46" s="27">
-        <v>2</v>
-      </c>
-      <c r="G46" s="27">
-        <v>2</v>
-      </c>
-      <c r="H46" s="27">
+      <c r="F46" s="25">
+        <v>2</v>
+      </c>
+      <c r="G46" s="25">
+        <v>2</v>
+      </c>
+      <c r="H46" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2882,16 +2969,16 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <v>6</v>
       </c>
-      <c r="F47" s="27">
-        <v>1</v>
-      </c>
-      <c r="G47" s="27">
-        <v>1</v>
-      </c>
-      <c r="H47" s="27">
+      <c r="F47" s="25">
+        <v>1</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2902,16 +2989,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="23">
         <v>7</v>
       </c>
-      <c r="F48" s="27">
-        <v>2</v>
-      </c>
-      <c r="G48" s="27">
-        <v>2</v>
-      </c>
-      <c r="H48" s="27">
+      <c r="F48" s="25">
+        <v>2</v>
+      </c>
+      <c r="G48" s="25">
+        <v>2</v>
+      </c>
+      <c r="H48" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2922,16 +3009,16 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="23">
         <v>7</v>
       </c>
-      <c r="F49" s="27">
-        <v>1</v>
-      </c>
-      <c r="G49" s="27">
-        <v>1</v>
-      </c>
-      <c r="H49" s="27">
+      <c r="F49" s="25">
+        <v>1</v>
+      </c>
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2942,16 +3029,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="23">
         <v>8</v>
       </c>
-      <c r="F50" s="27">
-        <v>2</v>
-      </c>
-      <c r="G50" s="27">
-        <v>2</v>
-      </c>
-      <c r="H50" s="27">
+      <c r="F50" s="25">
+        <v>2</v>
+      </c>
+      <c r="G50" s="25">
+        <v>2</v>
+      </c>
+      <c r="H50" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2962,16 +3049,16 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="23">
         <v>8</v>
       </c>
-      <c r="F51" s="27">
-        <v>1</v>
-      </c>
-      <c r="G51" s="27">
-        <v>1</v>
-      </c>
-      <c r="H51" s="27">
+      <c r="F51" s="25">
+        <v>1</v>
+      </c>
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2982,16 +3069,16 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="23">
         <v>9</v>
       </c>
-      <c r="F52" s="27">
-        <v>2</v>
-      </c>
-      <c r="G52" s="27">
-        <v>2</v>
-      </c>
-      <c r="H52" s="27">
+      <c r="F52" s="25">
+        <v>2</v>
+      </c>
+      <c r="G52" s="25">
+        <v>2</v>
+      </c>
+      <c r="H52" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3002,74 +3089,74 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="23">
         <v>9</v>
       </c>
-      <c r="F53" s="27">
-        <v>1</v>
-      </c>
-      <c r="G53" s="27">
-        <v>1</v>
-      </c>
-      <c r="H53" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="29" customFormat="1">
-      <c r="A54" s="29">
+      <c r="F53" s="25">
+        <v>1</v>
+      </c>
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="27" customFormat="1">
+      <c r="A54" s="27">
         <v>27</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="29">
-        <v>0</v>
-      </c>
-      <c r="E54" s="37">
+      <c r="D54" s="27">
+        <v>0</v>
+      </c>
+      <c r="E54" s="35">
         <v>10</v>
       </c>
-      <c r="F54" s="29">
-        <v>2</v>
-      </c>
-      <c r="G54" s="29">
-        <v>2</v>
-      </c>
-      <c r="H54" s="29">
-        <v>2</v>
-      </c>
-      <c r="I54" s="29" t="s">
+      <c r="F54" s="27">
+        <v>2</v>
+      </c>
+      <c r="G54" s="27">
+        <v>2</v>
+      </c>
+      <c r="H54" s="27">
+        <v>2</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="30" customFormat="1">
-      <c r="A55" s="30">
+    <row r="55" spans="1:9" s="28" customFormat="1">
+      <c r="A55" s="28">
         <v>27</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="30">
-        <v>1</v>
-      </c>
-      <c r="E55" s="35">
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="33">
         <v>10</v>
       </c>
-      <c r="F55" s="30">
-        <v>1</v>
-      </c>
-      <c r="G55" s="30">
-        <v>1</v>
-      </c>
-      <c r="H55" s="30">
-        <v>1</v>
-      </c>
-      <c r="I55" s="30" t="s">
+      <c r="F55" s="28">
+        <v>1</v>
+      </c>
+      <c r="G55" s="28">
+        <v>1</v>
+      </c>
+      <c r="H55" s="28">
+        <v>1</v>
+      </c>
+      <c r="I55" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3080,16 +3167,16 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <v>11</v>
       </c>
-      <c r="F56" s="27">
-        <v>2</v>
-      </c>
-      <c r="G56" s="27">
-        <v>2</v>
-      </c>
-      <c r="H56" s="27">
+      <c r="F56" s="25">
+        <v>2</v>
+      </c>
+      <c r="G56" s="25">
+        <v>2</v>
+      </c>
+      <c r="H56" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3100,16 +3187,16 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="23">
         <v>11</v>
       </c>
-      <c r="F57" s="27">
-        <v>1</v>
-      </c>
-      <c r="G57" s="27">
-        <v>1</v>
-      </c>
-      <c r="H57" s="27">
+      <c r="F57" s="25">
+        <v>1</v>
+      </c>
+      <c r="G57" s="25">
+        <v>1</v>
+      </c>
+      <c r="H57" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3120,16 +3207,16 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <v>12</v>
       </c>
-      <c r="F58" s="27">
-        <v>2</v>
-      </c>
-      <c r="G58" s="27">
-        <v>2</v>
-      </c>
-      <c r="H58" s="27">
+      <c r="F58" s="25">
+        <v>2</v>
+      </c>
+      <c r="G58" s="25">
+        <v>2</v>
+      </c>
+      <c r="H58" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3140,16 +3227,16 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>12</v>
       </c>
-      <c r="F59" s="27">
-        <v>1</v>
-      </c>
-      <c r="G59" s="27">
-        <v>1</v>
-      </c>
-      <c r="H59" s="27">
+      <c r="F59" s="25">
+        <v>1</v>
+      </c>
+      <c r="G59" s="25">
+        <v>1</v>
+      </c>
+      <c r="H59" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3160,16 +3247,16 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="23">
         <v>13</v>
       </c>
-      <c r="F60" s="27">
-        <v>2</v>
-      </c>
-      <c r="G60" s="27">
-        <v>2</v>
-      </c>
-      <c r="H60" s="27">
+      <c r="F60" s="25">
+        <v>2</v>
+      </c>
+      <c r="G60" s="25">
+        <v>2</v>
+      </c>
+      <c r="H60" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3180,16 +3267,16 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="23">
         <v>13</v>
       </c>
-      <c r="F61" s="27">
-        <v>1</v>
-      </c>
-      <c r="G61" s="27">
-        <v>1</v>
-      </c>
-      <c r="H61" s="27">
+      <c r="F61" s="25">
+        <v>1</v>
+      </c>
+      <c r="G61" s="25">
+        <v>1</v>
+      </c>
+      <c r="H61" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3200,16 +3287,16 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="23">
         <v>14</v>
       </c>
-      <c r="F62" s="27">
-        <v>2</v>
-      </c>
-      <c r="G62" s="27">
-        <v>2</v>
-      </c>
-      <c r="H62" s="27">
+      <c r="F62" s="25">
+        <v>2</v>
+      </c>
+      <c r="G62" s="25">
+        <v>2</v>
+      </c>
+      <c r="H62" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3220,16 +3307,16 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="23">
         <v>14</v>
       </c>
-      <c r="F63" s="27">
-        <v>1</v>
-      </c>
-      <c r="G63" s="27">
-        <v>1</v>
-      </c>
-      <c r="H63" s="27">
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
+      <c r="G63" s="25">
+        <v>1</v>
+      </c>
+      <c r="H63" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3240,16 +3327,16 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="23">
         <v>15</v>
       </c>
-      <c r="F64" s="27">
-        <v>2</v>
-      </c>
-      <c r="G64" s="27">
-        <v>2</v>
-      </c>
-      <c r="H64" s="27">
+      <c r="F64" s="25">
+        <v>2</v>
+      </c>
+      <c r="G64" s="25">
+        <v>2</v>
+      </c>
+      <c r="H64" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3260,28 +3347,28 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="23">
         <v>15</v>
       </c>
-      <c r="F65" s="27">
-        <v>1</v>
-      </c>
-      <c r="G65" s="27">
-        <v>1</v>
-      </c>
-      <c r="H65" s="27">
+      <c r="F65" s="25">
+        <v>1</v>
+      </c>
+      <c r="G65" s="25">
+        <v>1</v>
+      </c>
+      <c r="H65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF783348-7867-4508-B77B-26938C3046C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FD545-0235-4A24-971C-3A520B38F4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>Col1</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>12.Mar 15:00</t>
-  </si>
-  <si>
-    <t>19.Mar 13:00</t>
   </si>
   <si>
     <t>yasmeen.e.mahmoud@gmail.com</t>
@@ -264,6 +261,21 @@
   </si>
   <si>
     <t>12.Jun 17:00</t>
+  </si>
+  <si>
+    <t>Swaroopa Ganti</t>
+  </si>
+  <si>
+    <t>23.Jun 9:00</t>
+  </si>
+  <si>
+    <t>25.Jun 12:00</t>
+  </si>
+  <si>
+    <t>Bernhard Glas</t>
+  </si>
+  <si>
+    <t>23.Jun 11:00</t>
   </si>
 </sst>
 </file>
@@ -932,13 +944,13 @@
         <v>3</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1533,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -1765,8 +1777,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1932,6 +1944,12 @@
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -1952,6 +1970,12 @@
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -2005,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="24">
         <v>0</v>
@@ -2321,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -2350,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2374,10 +2398,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="28">
         <v>1</v>
@@ -2403,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2426,10 +2450,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="28">
         <v>1</v>
@@ -2455,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2510,7 +2534,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="24">
         <v>0</v>
@@ -2535,6 +2559,12 @@
       <c r="A28">
         <v>14</v>
       </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -2555,6 +2585,9 @@
       <c r="A29">
         <v>14</v>
       </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -2576,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>59</v>
@@ -2605,10 +2638,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2631,10 +2661,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="D32" s="28">
         <v>1</v>
@@ -2660,10 +2690,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -2689,10 +2719,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="D34" s="29">
         <v>0</v>
@@ -2718,10 +2748,10 @@
         <v>17</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="24">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FD545-0235-4A24-971C-3A520B38F4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A8BF7-B226-4F14-B418-202EBAC9B15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>Col1</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t>23.Jun 11:00</t>
+  </si>
+  <si>
+    <t>Second session is done after COVID-19 lockdown</t>
+  </si>
+  <si>
+    <t>Mohamed Mantawy</t>
+  </si>
+  <si>
+    <t>23.Jun 10:00</t>
+  </si>
+  <si>
+    <t>Ahmed Shams</t>
+  </si>
+  <si>
+    <t>23.Jun 12:00</t>
   </si>
 </sst>
 </file>
@@ -580,7 +595,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -626,6 +641,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -910,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1774,11 +1791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2685,7 +2702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1">
+    <row r="33" spans="1:10" s="24" customFormat="1">
       <c r="A33" s="24">
         <v>16</v>
       </c>
@@ -2714,7 +2731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1">
+    <row r="34" spans="1:10" s="29" customFormat="1">
       <c r="A34" s="29">
         <v>17</v>
       </c>
@@ -2743,7 +2760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="24" customFormat="1">
+    <row r="35" spans="1:10" s="24" customFormat="1">
       <c r="A35" s="24">
         <v>17</v>
       </c>
@@ -2771,8 +2788,11 @@
       <c r="I35" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>18</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2812,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2852,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2892,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>21</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>21</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>22</v>
       </c>
@@ -2972,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>23</v>
       </c>
@@ -2992,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>23</v>
       </c>
@@ -3012,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>24</v>
       </c>
@@ -3370,35 +3390,683 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
+    <row r="65" spans="1:8" s="3" customFormat="1">
+      <c r="A65" s="3">
         <v>32</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="23">
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="41">
         <v>15</v>
       </c>
-      <c r="F65" s="25">
-        <v>1</v>
-      </c>
-      <c r="G65" s="25">
-        <v>1</v>
-      </c>
-      <c r="H65" s="25">
+      <c r="F65" s="42">
+        <v>1</v>
+      </c>
+      <c r="G65" s="42">
+        <v>1</v>
+      </c>
+      <c r="H65" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="A66">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="23">
+        <v>0</v>
+      </c>
+      <c r="F66" s="25">
+        <v>2</v>
+      </c>
+      <c r="G66" s="25">
+        <v>2</v>
+      </c>
+      <c r="H66" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="23">
+        <v>0</v>
+      </c>
+      <c r="F67" s="25">
+        <v>1</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="23">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="23">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="23">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="23">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="23">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="23">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>37</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="23">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="23">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="23">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="23">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>39</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="23">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="23">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="23">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="23">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>41</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="23">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>41</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="23">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>42</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="23">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="23">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>43</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="23">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>43</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="23">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="23">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="23">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>45</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="23">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>45</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="23">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="23">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>46</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="23">
+        <v>13</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>47</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="23">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>47</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="23">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>48</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="23">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>48</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="23">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A8BF7-B226-4F14-B418-202EBAC9B15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52607E0D-51F7-43D2-9158-A17B8E0269B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>Col1</t>
   </si>
@@ -290,7 +290,13 @@
     <t>Ahmed Shams</t>
   </si>
   <si>
-    <t>23.Jun 12:00</t>
+    <t>25.Jun 9:00</t>
+  </si>
+  <si>
+    <t>25.Jun 10:00</t>
+  </si>
+  <si>
+    <t>30.Jun 12:00</t>
   </si>
 </sst>
 </file>
@@ -638,11 +644,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -927,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1561,11 +1567,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1606,9 +1612,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1649,9 +1655,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1692,9 +1698,9 @@
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1735,9 +1741,9 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1793,9 +1799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1957,30 +1963,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:10" s="24" customFormat="1">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2580,7 +2589,7 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3390,59 +3399,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1">
+    <row r="65" spans="1:9" s="3" customFormat="1">
       <c r="A65" s="3">
         <v>32</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="40">
         <v>15</v>
       </c>
-      <c r="F65" s="42">
-        <v>1</v>
-      </c>
-      <c r="G65" s="42">
-        <v>1</v>
-      </c>
-      <c r="H65" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
+      <c r="F65" s="41">
+        <v>1</v>
+      </c>
+      <c r="G65" s="41">
+        <v>1</v>
+      </c>
+      <c r="H65" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="24" customFormat="1">
+      <c r="A66" s="24">
         <v>33</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="23">
-        <v>0</v>
-      </c>
-      <c r="F66" s="25">
-        <v>2</v>
-      </c>
-      <c r="G66" s="25">
-        <v>2</v>
-      </c>
-      <c r="H66" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="D66" s="24">
+        <v>1</v>
+      </c>
+      <c r="E66" s="24">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27">
+        <v>2</v>
+      </c>
+      <c r="G66" s="27">
+        <v>2</v>
+      </c>
+      <c r="H66" s="27">
+        <v>2</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>33</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -3459,39 +3474,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
+    <row r="68" spans="1:9" s="24" customFormat="1">
+      <c r="A68" s="24">
         <v>34</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="23">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="C68" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="24">
+        <v>1</v>
+      </c>
+      <c r="E68" s="24">
+        <v>1</v>
+      </c>
+      <c r="F68" s="24">
+        <v>2</v>
+      </c>
+      <c r="G68" s="24">
+        <v>2</v>
+      </c>
+      <c r="H68" s="24">
+        <v>2</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>34</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
       <c r="D69">
         <v>0</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>35</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>35</v>
       </c>
@@ -3548,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>36</v>
       </c>
@@ -3568,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>36</v>
       </c>
@@ -3588,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>37</v>
       </c>
@@ -3608,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>37</v>
       </c>
@@ -3628,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>38</v>
       </c>
@@ -3648,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>38</v>
       </c>
@@ -3668,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>39</v>
       </c>
@@ -3688,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>39</v>
       </c>
@@ -3708,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>40</v>
       </c>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52607E0D-51F7-43D2-9158-A17B8E0269B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC45142-9E29-456E-9562-0DF9960820AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Col1</t>
   </si>
@@ -1800,8 +1800,8 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1992,30 +1992,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:10" s="24" customFormat="1">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1">
@@ -3448,30 +3451,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
+    <row r="67" spans="1:9" s="24" customFormat="1">
+      <c r="A67" s="24">
         <v>33</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" s="23">
-        <v>0</v>
-      </c>
-      <c r="F67" s="25">
-        <v>1</v>
-      </c>
-      <c r="G67" s="25">
-        <v>1</v>
-      </c>
-      <c r="H67" s="25">
-        <v>1</v>
+      <c r="D67" s="24">
+        <v>0</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27">
+        <v>1</v>
+      </c>
+      <c r="G67" s="27">
+        <v>1</v>
+      </c>
+      <c r="H67" s="27">
+        <v>1</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1">
@@ -3503,30 +3509,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
+    <row r="69" spans="1:9" s="24" customFormat="1">
+      <c r="A69" s="24">
         <v>34</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" s="23">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
+      <c r="D69" s="24">
+        <v>0</v>
+      </c>
+      <c r="E69" s="24">
+        <v>1</v>
+      </c>
+      <c r="F69" s="24">
+        <v>1</v>
+      </c>
+      <c r="G69" s="24">
+        <v>1</v>
+      </c>
+      <c r="H69" s="24">
+        <v>1</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:9">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC45142-9E29-456E-9562-0DF9960820AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C353-5F4B-4F4A-B5D3-01E765AE33A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>Col1</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>30.Jun 12:00</t>
+  </si>
+  <si>
+    <t>Alaa Musleh</t>
+  </si>
+  <si>
+    <t>Kanthi Bhogavilli</t>
+  </si>
+  <si>
+    <t>09.July 13:15</t>
+  </si>
+  <si>
+    <t>Syamala Kovvuri</t>
+  </si>
+  <si>
+    <t>09.July 15:00</t>
+  </si>
+  <si>
+    <t>09.July 11:45</t>
   </si>
 </sst>
 </file>
@@ -934,7 +952,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1800,8 +1818,8 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2804,30 +2822,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
+    <row r="36" spans="1:10" s="24" customFormat="1">
+      <c r="A36" s="24">
         <v>18</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="B36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24">
+        <v>2</v>
+      </c>
+      <c r="G36" s="24">
+        <v>2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>2</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
         <v>18</v>
       </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
@@ -2848,6 +2878,12 @@
       <c r="A38">
         <v>19</v>
       </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -2868,6 +2904,9 @@
       <c r="A39">
         <v>19</v>
       </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -2888,6 +2927,12 @@
       <c r="A40">
         <v>20</v>
       </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
       <c r="D40">
         <v>0</v>
       </c>
@@ -2907,6 +2952,9 @@
     <row r="41" spans="1:10">
       <c r="A41">
         <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
       </c>
       <c r="D41">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C353-5F4B-4F4A-B5D3-01E765AE33A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CE07A-8FAA-4A7A-8E2D-3B704A8B241C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>Col1</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>Alaa Musleh</t>
-  </si>
-  <si>
-    <t>Kanthi Bhogavilli</t>
-  </si>
-  <si>
-    <t>09.July 13:15</t>
   </si>
   <si>
     <t>Syamala Kovvuri</t>
@@ -952,7 +946,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="O17" sqref="O17:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1818,8 +1812,8 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2830,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -2878,12 +2872,6 @@
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -2904,9 +2892,6 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -2928,10 +2913,10 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2954,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CE07A-8FAA-4A7A-8E2D-3B704A8B241C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E04F50-0A98-4B59-B11E-2B56229BF53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>Col1</t>
   </si>
@@ -296,19 +296,22 @@
     <t>25.Jun 10:00</t>
   </si>
   <si>
-    <t>30.Jun 12:00</t>
-  </si>
-  <si>
     <t>Alaa Musleh</t>
   </si>
   <si>
     <t>Syamala Kovvuri</t>
   </si>
   <si>
-    <t>09.July 15:00</t>
-  </si>
-  <si>
     <t>09.July 11:45</t>
+  </si>
+  <si>
+    <t>Abdelrahman Magdy</t>
+  </si>
+  <si>
+    <t>14.July 17:00</t>
+  </si>
+  <si>
+    <t>14.July 16:00</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -658,6 +661,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -945,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O17" sqref="O17:Q21"/>
     </sheetView>
   </sheetViews>
@@ -1579,11 +1583,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1624,9 +1628,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1667,9 +1671,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1710,9 +1714,9 @@
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1753,9 +1757,9 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1811,9 +1815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2603,9 +2607,6 @@
       <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -2681,6 +2682,9 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
       <c r="D31">
         <v>0</v>
       </c>
@@ -2695,6 +2699,9 @@
       </c>
       <c r="H31">
         <v>2</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1">
@@ -2812,7 +2819,7 @@
       <c r="I35" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="42" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2821,10 +2828,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -2850,7 +2857,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2872,6 +2879,12 @@
       <c r="A38">
         <v>19</v>
       </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -2892,6 +2905,9 @@
       <c r="A39">
         <v>19</v>
       </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -2913,10 +2929,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2939,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E04F50-0A98-4B59-B11E-2B56229BF53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDF10A-226B-41A6-9800-4E2366FF4B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>Col1</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Alaa Musleh</t>
   </si>
   <si>
-    <t>Syamala Kovvuri</t>
-  </si>
-  <si>
     <t>09.July 11:45</t>
   </si>
   <si>
@@ -312,6 +309,27 @@
   </si>
   <si>
     <t>14.July 16:00</t>
+  </si>
+  <si>
+    <t>Rahul Choubey</t>
+  </si>
+  <si>
+    <t>16.July 11:00</t>
+  </si>
+  <si>
+    <t>Sonia Gonzales</t>
+  </si>
+  <si>
+    <t>16.July 13:00</t>
+  </si>
+  <si>
+    <t>Moeen Khurram</t>
+  </si>
+  <si>
+    <t>16.July 15:00</t>
+  </si>
+  <si>
+    <t>16.July 12:20</t>
   </si>
 </sst>
 </file>
@@ -949,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:Q21"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1815,9 +1833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2683,7 +2701,7 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2831,7 +2849,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -2852,99 +2870,117 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+    <row r="37" spans="1:10" s="24" customFormat="1">
+      <c r="A37" s="24">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
+      <c r="C37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="24">
+        <v>1</v>
+      </c>
+      <c r="H37" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="24" customFormat="1">
+      <c r="A38" s="24">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="23">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="E38" s="24">
+        <v>2</v>
+      </c>
+      <c r="F38" s="24">
+        <v>2</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2</v>
+      </c>
+      <c r="H38" s="24">
+        <v>2</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="24" customFormat="1">
+      <c r="A39" s="24">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23">
-        <v>2</v>
-      </c>
-      <c r="F39" s="25">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25">
-        <v>1</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
+      <c r="B39" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="24">
+        <v>2</v>
+      </c>
+      <c r="F39" s="27">
+        <v>1</v>
+      </c>
+      <c r="G39" s="27">
+        <v>1</v>
+      </c>
+      <c r="H39" s="27">
+        <v>1</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="24" customFormat="1">
+      <c r="A40" s="24">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="B40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="E40" s="24">
         <v>3</v>
       </c>
-      <c r="F40" s="25">
-        <v>2</v>
-      </c>
-      <c r="G40" s="25">
-        <v>2</v>
-      </c>
-      <c r="H40" s="25">
-        <v>2</v>
+      <c r="F40" s="27">
+        <v>2</v>
+      </c>
+      <c r="G40" s="27">
+        <v>2</v>
+      </c>
+      <c r="H40" s="27">
+        <v>2</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2952,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2970,30 +3006,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
+    <row r="42" spans="1:10" s="24" customFormat="1">
+      <c r="A42" s="24">
         <v>21</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="B42" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="E42" s="24">
         <v>4</v>
       </c>
-      <c r="F42" s="25">
-        <v>2</v>
-      </c>
-      <c r="G42" s="25">
-        <v>2</v>
-      </c>
-      <c r="H42" s="25">
-        <v>2</v>
+      <c r="F42" s="27">
+        <v>2</v>
+      </c>
+      <c r="G42" s="27">
+        <v>2</v>
+      </c>
+      <c r="H42" s="27">
+        <v>2</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
         <v>21</v>
       </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
       <c r="D43">
         <v>1</v>
       </c>
@@ -3014,25 +3062,31 @@
       <c r="A44">
         <v>22</v>
       </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="25">
-        <v>2</v>
-      </c>
-      <c r="G44" s="25">
-        <v>2</v>
-      </c>
-      <c r="H44" s="25">
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
         <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
       </c>
       <c r="D45">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDF10A-226B-41A6-9800-4E2366FF4B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB155F5-FBA2-45A4-9E4C-BB9F66EE946B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="100">
   <si>
     <t>Col1</t>
   </si>
@@ -272,9 +272,6 @@
     <t>25.Jun 12:00</t>
   </si>
   <si>
-    <t>Bernhard Glas</t>
-  </si>
-  <si>
     <t>23.Jun 11:00</t>
   </si>
   <si>
@@ -323,13 +320,19 @@
     <t>16.July 13:00</t>
   </si>
   <si>
-    <t>Moeen Khurram</t>
-  </si>
-  <si>
     <t>16.July 15:00</t>
   </si>
   <si>
     <t>16.July 12:20</t>
+  </si>
+  <si>
+    <t>Anupam Prakash</t>
+  </si>
+  <si>
+    <t>21.July 15:00</t>
+  </si>
+  <si>
+    <t>21.July 16:00</t>
   </si>
 </sst>
 </file>
@@ -1834,8 +1837,8 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2622,9 +2625,6 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -2645,9 +2645,6 @@
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2719,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1">
@@ -2838,7 +2835,7 @@
         <v>54</v>
       </c>
       <c r="J35" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="24" customFormat="1">
@@ -2846,10 +2843,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -2875,10 +2872,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="24">
         <v>1</v>
@@ -2894,6 +2891,9 @@
       </c>
       <c r="H37" s="24">
         <v>1</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="24" customFormat="1">
@@ -2901,10 +2901,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="24">
         <v>1</v>
@@ -2959,10 +2959,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3011,10 +3011,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="D42" s="24">
         <v>0</v>
@@ -3035,36 +3035,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+    <row r="43" spans="1:10" s="24" customFormat="1">
+      <c r="A43" s="24">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="B43" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
         <v>4</v>
       </c>
-      <c r="F43" s="25">
-        <v>1</v>
-      </c>
-      <c r="G43" s="25">
-        <v>1</v>
-      </c>
-      <c r="H43" s="25">
-        <v>1</v>
+      <c r="F43" s="27">
+        <v>1</v>
+      </c>
+      <c r="G43" s="27">
+        <v>1</v>
+      </c>
+      <c r="H43" s="27">
+        <v>1</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -3085,9 +3088,6 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
       <c r="D45">
         <v>1</v>
       </c>
@@ -3111,16 +3111,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46">
         <v>6</v>
       </c>
-      <c r="F46" s="25">
-        <v>2</v>
-      </c>
-      <c r="G46" s="25">
-        <v>2</v>
-      </c>
-      <c r="H46" s="25">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
     </row>
@@ -3144,30 +3144,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
+    <row r="48" spans="1:10" s="24" customFormat="1">
+      <c r="A48" s="24">
         <v>24</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="B48" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0</v>
+      </c>
+      <c r="E48" s="24">
         <v>7</v>
       </c>
-      <c r="F48" s="25">
-        <v>2</v>
-      </c>
-      <c r="G48" s="25">
-        <v>2</v>
-      </c>
-      <c r="H48" s="25">
-        <v>2</v>
+      <c r="F48" s="27">
+        <v>2</v>
+      </c>
+      <c r="G48" s="27">
+        <v>2</v>
+      </c>
+      <c r="H48" s="27">
+        <v>2</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
         <v>24</v>
       </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
       <c r="D49">
         <v>1</v>
       </c>
@@ -3527,10 +3539,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="D66" s="24">
         <v>1</v>
@@ -3556,10 +3568,10 @@
         <v>33</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="24">
         <v>0</v>
@@ -3585,10 +3597,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="24">
         <v>1</v>
@@ -3614,10 +3626,10 @@
         <v>34</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="24">
         <v>0</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB155F5-FBA2-45A4-9E4C-BB9F66EE946B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64025CF0-EEFC-4D0B-B77F-A934EB6FFE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
   <si>
     <t>Col1</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>21.July 16:00</t>
+  </si>
+  <si>
+    <t>23.July 10:00</t>
+  </si>
+  <si>
+    <t>23.July 15:00</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B47"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2983,27 +2989,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
+    <row r="41" spans="1:10" s="24" customFormat="1">
+      <c r="A41" s="24">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="C41" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24">
         <v>3</v>
       </c>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="25">
-        <v>1</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
+      <c r="F41" s="27">
+        <v>1</v>
+      </c>
+      <c r="G41" s="27">
+        <v>1</v>
+      </c>
+      <c r="H41" s="27">
+        <v>1</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="24" customFormat="1">
@@ -3173,27 +3185,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
+    <row r="49" spans="1:9" s="24" customFormat="1">
+      <c r="A49" s="24">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="C49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1</v>
+      </c>
+      <c r="E49" s="24">
         <v>7</v>
       </c>
-      <c r="F49" s="25">
-        <v>1</v>
-      </c>
-      <c r="G49" s="25">
-        <v>1</v>
-      </c>
-      <c r="H49" s="25">
-        <v>1</v>
+      <c r="F49" s="27">
+        <v>1</v>
+      </c>
+      <c r="G49" s="27">
+        <v>1</v>
+      </c>
+      <c r="H49" s="27">
+        <v>1</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:9">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64025CF0-EEFC-4D0B-B77F-A934EB6FFE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF712364-AE06-43ED-92E4-CCDD5303997F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t>Col1</t>
   </si>
@@ -339,13 +339,37 @@
   </si>
   <si>
     <t>23.July 15:00</t>
+  </si>
+  <si>
+    <t>Bernhard Glas</t>
+  </si>
+  <si>
+    <t>28.July 10:00</t>
+  </si>
+  <si>
+    <t>Pragadish Munirathinam Nandakumar</t>
+  </si>
+  <si>
+    <t>28.July 11:00</t>
+  </si>
+  <si>
+    <t>Tabish Mahmood</t>
+  </si>
+  <si>
+    <t>30.July 10:00</t>
+  </si>
+  <si>
+    <t>30.July 11:00</t>
+  </si>
+  <si>
+    <t>30.July 15:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +429,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +453,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -638,12 +675,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -689,12 +727,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1610,11 +1651,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O17" s="43" t="s">
+      <c r="O17" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1655,9 +1696,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1698,9 +1739,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1741,9 +1782,9 @@
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1784,9 +1825,9 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1843,14 +1884,14 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
@@ -2627,43 +2668,58 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="28" spans="1:10" s="24" customFormat="1">
+      <c r="A28" s="24">
         <v>14</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="B28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
         <v>13</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24">
+        <v>1</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="43" customFormat="1">
+      <c r="A29" s="43">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="B29" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="43">
+        <v>0</v>
+      </c>
+      <c r="E29" s="43">
         <v>13</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="43">
+        <v>2</v>
+      </c>
+      <c r="G29" s="43">
+        <v>2</v>
+      </c>
+      <c r="H29" s="43">
         <v>2</v>
       </c>
     </row>
@@ -2696,29 +2752,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="31" spans="1:10" s="24" customFormat="1">
+      <c r="A31" s="24">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
         <v>14</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24">
         <v>2</v>
       </c>
       <c r="J31" s="42" t="s">
@@ -3076,69 +3132,93 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
+    <row r="44" spans="1:10" s="24" customFormat="1">
+      <c r="A44" s="24">
         <v>22</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="B44" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
         <v>5</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
+      <c r="F44" s="24">
+        <v>2</v>
+      </c>
+      <c r="G44" s="24">
+        <v>2</v>
+      </c>
+      <c r="H44" s="24">
+        <v>2</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1">
+      <c r="A45" s="43">
         <v>22</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23">
+      <c r="B45" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="43">
+        <v>1</v>
+      </c>
+      <c r="E45" s="43">
         <v>5</v>
       </c>
-      <c r="F45" s="25">
-        <v>1</v>
-      </c>
-      <c r="G45" s="25">
-        <v>1</v>
-      </c>
-      <c r="H45" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
+      <c r="F45" s="45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="43" customFormat="1">
+      <c r="A46" s="43">
         <v>23</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="B46" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="43">
+        <v>0</v>
+      </c>
+      <c r="E46" s="43">
         <v>6</v>
       </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
+      <c r="F46" s="43">
+        <v>2</v>
+      </c>
+      <c r="G46" s="43">
+        <v>2</v>
+      </c>
+      <c r="H46" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
         <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
       </c>
       <c r="D47">
         <v>1</v>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF712364-AE06-43ED-92E4-CCDD5303997F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E7FF5-769E-4AF7-9A5D-03F8E4FFD3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="123">
   <si>
     <t>Col1</t>
   </si>
@@ -353,16 +353,55 @@
     <t>28.July 11:00</t>
   </si>
   <si>
-    <t>Tabish Mahmood</t>
-  </si>
-  <si>
     <t>30.July 10:00</t>
   </si>
   <si>
     <t>30.July 11:00</t>
   </si>
   <si>
-    <t>30.July 15:00</t>
+    <t>Simon Lutz</t>
+  </si>
+  <si>
+    <t>30.July 12:30</t>
+  </si>
+  <si>
+    <t>Fangfang Chen</t>
+  </si>
+  <si>
+    <t>30.July 14:40</t>
+  </si>
+  <si>
+    <t>Maximilian Zittlau</t>
+  </si>
+  <si>
+    <t>04.Aug 10:00</t>
+  </si>
+  <si>
+    <t>Lisa Borchert</t>
+  </si>
+  <si>
+    <t>malek arous</t>
+  </si>
+  <si>
+    <t>04.Aug 14:00</t>
+  </si>
+  <si>
+    <t>Marius Schikora</t>
+  </si>
+  <si>
+    <t>04.Aug 15:00</t>
+  </si>
+  <si>
+    <t>Accidently set id to be 23 which has been done already on another person</t>
+  </si>
+  <si>
+    <t>04.Aug 11:00</t>
+  </si>
+  <si>
+    <t>Yanfei Hu</t>
+  </si>
+  <si>
+    <t>04.Aug 12:00</t>
   </si>
 </sst>
 </file>
@@ -431,7 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -457,7 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,21 +670,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -674,14 +698,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -710,32 +747,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1050,13 +1085,13 @@
       <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1132,13 +1167,13 @@
       <c r="K3" s="14">
         <v>7</v>
       </c>
-      <c r="N3" s="37">
-        <v>1</v>
-      </c>
-      <c r="O3" s="38">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39">
+      <c r="N3" s="33">
+        <v>1</v>
+      </c>
+      <c r="O3" s="34">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35">
         <v>2</v>
       </c>
     </row>
@@ -1173,13 +1208,13 @@
       <c r="K4" s="14">
         <v>11</v>
       </c>
-      <c r="N4" s="37">
-        <v>1</v>
-      </c>
-      <c r="O4" s="38">
-        <v>2</v>
-      </c>
-      <c r="P4" s="39">
+      <c r="N4" s="33">
+        <v>1</v>
+      </c>
+      <c r="O4" s="34">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1214,13 +1249,13 @@
       <c r="K5" s="17">
         <v>15</v>
       </c>
-      <c r="N5" s="37">
-        <v>1</v>
-      </c>
-      <c r="O5" s="38">
-        <v>2</v>
-      </c>
-      <c r="P5" s="39">
+      <c r="N5" s="33">
+        <v>1</v>
+      </c>
+      <c r="O5" s="34">
+        <v>2</v>
+      </c>
+      <c r="P5" s="35">
         <v>2</v>
       </c>
     </row>
@@ -1235,13 +1270,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
-      <c r="N6" s="37">
-        <v>2</v>
-      </c>
-      <c r="O6" s="38">
-        <v>1</v>
-      </c>
-      <c r="P6" s="39">
+      <c r="N6" s="33">
+        <v>2</v>
+      </c>
+      <c r="O6" s="34">
+        <v>1</v>
+      </c>
+      <c r="P6" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1276,13 +1311,13 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="N7" s="37">
-        <v>2</v>
-      </c>
-      <c r="O7" s="38">
-        <v>1</v>
-      </c>
-      <c r="P7" s="39">
+      <c r="N7" s="33">
+        <v>2</v>
+      </c>
+      <c r="O7" s="34">
+        <v>1</v>
+      </c>
+      <c r="P7" s="35">
         <v>2</v>
       </c>
     </row>
@@ -1317,13 +1352,13 @@
       <c r="K8" s="14">
         <v>7</v>
       </c>
-      <c r="N8" s="37">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38">
-        <v>2</v>
-      </c>
-      <c r="P8" s="39">
+      <c r="N8" s="33">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34">
+        <v>2</v>
+      </c>
+      <c r="P8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1651,11 +1686,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O17" s="44" t="s">
+      <c r="O17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1696,9 +1731,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1739,9 +1774,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1782,9 +1817,9 @@
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1825,9 +1860,9 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1881,11 +1916,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1895,8 +1930,11 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="29.25" customHeight="1">
@@ -1912,7 +1950,7 @@
       <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1944,7 +1982,7 @@
       <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <v>0</v>
       </c>
       <c r="F2" s="24">
@@ -1973,7 +2011,7 @@
       <c r="D3" s="26">
         <v>0</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>0</v>
       </c>
       <c r="F3" s="26">
@@ -1989,32 +2027,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="24" customFormat="1">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:10" s="26" customFormat="1">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="26">
         <v>1</v>
       </c>
       <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2031,7 +2069,7 @@
       <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
       <c r="F5" s="26">
@@ -2047,235 +2085,235 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1">
-      <c r="A6" s="24">
+    <row r="6" spans="1:10" s="26" customFormat="1">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1">
-      <c r="A7" s="24">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="26" customFormat="1">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>2</v>
-      </c>
-      <c r="F7" s="24">
-        <v>2</v>
-      </c>
-      <c r="G7" s="24">
-        <v>2</v>
-      </c>
-      <c r="H7" s="24">
-        <v>2</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="28" customFormat="1">
-      <c r="A8" s="28">
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="26" customFormat="1">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
         <v>3</v>
       </c>
-      <c r="F8" s="28">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="24" customFormat="1">
-      <c r="A9" s="24">
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="26" customFormat="1">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
         <v>3</v>
       </c>
-      <c r="F9" s="24">
-        <v>2</v>
-      </c>
-      <c r="G9" s="24">
-        <v>2</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="24" customFormat="1">
-      <c r="A10" s="24">
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+      <c r="H9" s="26">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="26" customFormat="1">
+      <c r="A10" s="26">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="24">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="28" customFormat="1">
-      <c r="A11" s="28">
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="26" customFormat="1">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
         <v>4</v>
       </c>
-      <c r="F11" s="28">
-        <v>2</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2</v>
-      </c>
-      <c r="H11" s="28">
-        <v>2</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="24" customFormat="1">
-      <c r="A12" s="24">
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="26" customFormat="1">
+      <c r="A12" s="26">
         <v>6</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
       <c r="E12" s="31">
         <v>5</v>
       </c>
-      <c r="F12" s="24">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="28" customFormat="1">
-      <c r="A13" s="28">
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="26" customFormat="1">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
         <v>5</v>
       </c>
-      <c r="F13" s="28">
-        <v>2</v>
-      </c>
-      <c r="G13" s="28">
-        <v>2</v>
-      </c>
-      <c r="H13" s="28">
-        <v>2</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2292,7 +2330,7 @@
       <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>6</v>
       </c>
       <c r="F14" s="26">
@@ -2308,90 +2346,90 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="28" customFormat="1">
-      <c r="A15" s="28">
+    <row r="15" spans="1:10" s="26" customFormat="1">
+      <c r="A15" s="26">
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="28">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
         <v>6</v>
       </c>
-      <c r="F15" s="28">
-        <v>2</v>
-      </c>
-      <c r="G15" s="28">
-        <v>2</v>
-      </c>
-      <c r="H15" s="28">
-        <v>2</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="28" customFormat="1">
-      <c r="A16" s="28">
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>2</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1">
+      <c r="A16" s="26">
         <v>8</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="28">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
         <v>7</v>
       </c>
-      <c r="F16" s="28">
-        <v>1</v>
-      </c>
-      <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28">
-        <v>1</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1">
-      <c r="A17" s="28">
+      <c r="F16" s="26">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="28">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
         <v>7</v>
       </c>
-      <c r="F17" s="28">
-        <v>2</v>
-      </c>
-      <c r="G17" s="28">
-        <v>2</v>
-      </c>
-      <c r="H17" s="28">
-        <v>2</v>
-      </c>
-      <c r="I17" s="28" t="s">
+      <c r="F17" s="26">
+        <v>2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2408,7 +2446,7 @@
       <c r="D18" s="26">
         <v>1</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>8</v>
       </c>
       <c r="F18" s="26">
@@ -2424,189 +2462,189 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="28" customFormat="1">
-      <c r="A19" s="28">
+    <row r="19" spans="1:10" s="26" customFormat="1">
+      <c r="A19" s="26">
         <v>9</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="28">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31">
         <v>8</v>
       </c>
-      <c r="F19" s="28">
-        <v>2</v>
-      </c>
-      <c r="G19" s="28">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28">
-        <v>2</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1">
-      <c r="A20" s="24">
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="26" customFormat="1">
+      <c r="A20" s="26">
         <v>10</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="26">
         <v>1</v>
       </c>
       <c r="E20" s="31">
         <v>9</v>
       </c>
-      <c r="F20" s="24">
-        <v>1</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1">
-      <c r="A22" s="28">
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" s="26" customFormat="1">
+      <c r="A22" s="26">
         <v>11</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="28">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
         <v>10</v>
       </c>
-      <c r="F22" s="28">
-        <v>1</v>
-      </c>
-      <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28">
-        <v>1</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="A23" s="1">
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1">
-      <c r="A24" s="28">
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="26" customFormat="1">
+      <c r="A24" s="26">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="28">
-        <v>1</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
         <v>11</v>
       </c>
-      <c r="F24" s="28">
-        <v>1</v>
-      </c>
-      <c r="G24" s="28">
-        <v>1</v>
-      </c>
-      <c r="H24" s="28">
-        <v>1</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="A25" s="1">
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39">
         <v>11</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2623,7 +2661,7 @@
       <c r="D26" s="26">
         <v>1</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>12</v>
       </c>
       <c r="F26" s="26">
@@ -2675,7 +2713,7 @@
       <c r="B28" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="24">
@@ -2697,30 +2735,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="43" customFormat="1">
-      <c r="A29" s="43">
+    <row r="29" spans="1:10" s="24" customFormat="1">
+      <c r="A29" s="24">
         <v>14</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="43">
-        <v>0</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="C29" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
         <v>13</v>
       </c>
-      <c r="F29" s="43">
-        <v>2</v>
-      </c>
-      <c r="G29" s="43">
-        <v>2</v>
-      </c>
-      <c r="H29" s="43">
-        <v>2</v>
+      <c r="F29" s="24">
+        <v>2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>2</v>
+      </c>
+      <c r="H29" s="24">
+        <v>2</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="24" customFormat="1">
@@ -2730,13 +2771,13 @@
       <c r="B30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="29">
         <v>14</v>
       </c>
       <c r="F30" s="24">
@@ -2777,36 +2818,39 @@
       <c r="H31" s="24">
         <v>2</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="I31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="28" customFormat="1">
-      <c r="A32" s="28">
+    <row r="32" spans="1:10" s="26" customFormat="1">
+      <c r="A32" s="26">
         <v>16</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="28">
-        <v>1</v>
-      </c>
-      <c r="E32" s="28">
+      <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
         <v>15</v>
       </c>
-      <c r="F32" s="28">
-        <v>1</v>
-      </c>
-      <c r="G32" s="28">
-        <v>1</v>
-      </c>
-      <c r="H32" s="28">
-        <v>1</v>
-      </c>
-      <c r="I32" s="28" t="s">
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26">
+        <v>1</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2839,32 +2883,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="29" customFormat="1">
-      <c r="A34" s="29">
+    <row r="34" spans="1:10" s="27" customFormat="1">
+      <c r="A34" s="27">
         <v>17</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="29">
-        <v>0</v>
-      </c>
-      <c r="E34" s="34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29">
-        <v>2</v>
-      </c>
-      <c r="G34" s="29">
-        <v>2</v>
-      </c>
-      <c r="H34" s="29">
-        <v>2</v>
-      </c>
-      <c r="I34" s="29" t="s">
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <v>2</v>
+      </c>
+      <c r="G34" s="27">
+        <v>2</v>
+      </c>
+      <c r="H34" s="27">
+        <v>2</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2872,7 +2916,7 @@
       <c r="A35" s="24">
         <v>17</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -2884,19 +2928,19 @@
       <c r="E35" s="24">
         <v>0</v>
       </c>
-      <c r="F35" s="27">
-        <v>1</v>
-      </c>
-      <c r="G35" s="27">
-        <v>1</v>
-      </c>
-      <c r="H35" s="27">
+      <c r="F35" s="26">
+        <v>1</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="26">
         <v>1</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="37" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3003,13 +3047,13 @@
       <c r="E39" s="24">
         <v>2</v>
       </c>
-      <c r="F39" s="27">
-        <v>1</v>
-      </c>
-      <c r="G39" s="27">
-        <v>1</v>
-      </c>
-      <c r="H39" s="27">
+      <c r="F39" s="26">
+        <v>1</v>
+      </c>
+      <c r="G39" s="26">
+        <v>1</v>
+      </c>
+      <c r="H39" s="26">
         <v>1</v>
       </c>
       <c r="I39" s="24" t="s">
@@ -3032,13 +3076,13 @@
       <c r="E40" s="24">
         <v>3</v>
       </c>
-      <c r="F40" s="27">
-        <v>2</v>
-      </c>
-      <c r="G40" s="27">
-        <v>2</v>
-      </c>
-      <c r="H40" s="27">
+      <c r="F40" s="26">
+        <v>2</v>
+      </c>
+      <c r="G40" s="26">
+        <v>2</v>
+      </c>
+      <c r="H40" s="26">
         <v>2</v>
       </c>
       <c r="I40" s="24" t="s">
@@ -3061,171 +3105,177 @@
       <c r="E41" s="24">
         <v>3</v>
       </c>
-      <c r="F41" s="27">
-        <v>1</v>
-      </c>
-      <c r="G41" s="27">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27">
+      <c r="F41" s="26">
+        <v>1</v>
+      </c>
+      <c r="G41" s="26">
+        <v>1</v>
+      </c>
+      <c r="H41" s="26">
         <v>1</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="24" customFormat="1">
-      <c r="A42" s="24">
+    <row r="42" spans="1:10" s="26" customFormat="1">
+      <c r="A42" s="26">
         <v>21</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="D42" s="26">
+        <v>0</v>
+      </c>
+      <c r="E42" s="26">
         <v>4</v>
       </c>
-      <c r="F42" s="27">
-        <v>2</v>
-      </c>
-      <c r="G42" s="27">
-        <v>2</v>
-      </c>
-      <c r="H42" s="27">
-        <v>2</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="24" customFormat="1">
-      <c r="A43" s="24">
+      <c r="F42" s="26">
+        <v>2</v>
+      </c>
+      <c r="G42" s="26">
+        <v>2</v>
+      </c>
+      <c r="H42" s="26">
+        <v>2</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="26" customFormat="1">
+      <c r="A43" s="26">
         <v>21</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="24">
-        <v>1</v>
-      </c>
-      <c r="E43" s="24">
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26">
         <v>4</v>
       </c>
-      <c r="F43" s="27">
-        <v>1</v>
-      </c>
-      <c r="G43" s="27">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27">
-        <v>1</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="24" customFormat="1">
-      <c r="A44" s="24">
+      <c r="F43" s="26">
+        <v>1</v>
+      </c>
+      <c r="G43" s="26">
+        <v>1</v>
+      </c>
+      <c r="H43" s="26">
+        <v>1</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="26" customFormat="1">
+      <c r="A44" s="26">
         <v>22</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="24">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="D44" s="26">
+        <v>0</v>
+      </c>
+      <c r="E44" s="26">
         <v>5</v>
       </c>
-      <c r="F44" s="24">
-        <v>2</v>
-      </c>
-      <c r="G44" s="24">
-        <v>2</v>
-      </c>
-      <c r="H44" s="24">
-        <v>2</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1">
-      <c r="A45" s="43">
+      <c r="F44" s="26">
+        <v>2</v>
+      </c>
+      <c r="G44" s="26">
+        <v>2</v>
+      </c>
+      <c r="H44" s="26">
+        <v>2</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1">
+      <c r="A45" s="26">
         <v>22</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26">
+        <v>5</v>
+      </c>
+      <c r="F45" s="26">
+        <v>1</v>
+      </c>
+      <c r="G45" s="26">
+        <v>1</v>
+      </c>
+      <c r="H45" s="26">
+        <v>1</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="26" customFormat="1">
+      <c r="A46" s="26">
+        <v>23</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="43">
-        <v>1</v>
-      </c>
-      <c r="E45" s="43">
-        <v>5</v>
-      </c>
-      <c r="F45" s="45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="43" customFormat="1">
-      <c r="A46" s="43">
+      <c r="C46" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="26">
+        <v>0</v>
+      </c>
+      <c r="E46" s="26">
+        <v>6</v>
+      </c>
+      <c r="F46" s="26">
+        <v>2</v>
+      </c>
+      <c r="G46" s="26">
+        <v>2</v>
+      </c>
+      <c r="H46" s="26">
+        <v>2</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1">
+      <c r="A47" s="1">
         <v>23</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="43">
-        <v>0</v>
-      </c>
-      <c r="E46" s="43">
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="39">
         <v>6</v>
       </c>
-      <c r="F46" s="43">
-        <v>2</v>
-      </c>
-      <c r="G46" s="43">
-        <v>2</v>
-      </c>
-      <c r="H46" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="23">
-        <v>6</v>
-      </c>
       <c r="F47" s="25">
         <v>1</v>
       </c>
@@ -3236,92 +3286,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="24" customFormat="1">
-      <c r="A48" s="24">
+    <row r="48" spans="1:10" s="26" customFormat="1">
+      <c r="A48" s="26">
         <v>24</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="24">
-        <v>0</v>
-      </c>
-      <c r="E48" s="24">
+      <c r="D48" s="26">
+        <v>0</v>
+      </c>
+      <c r="E48" s="26">
         <v>7</v>
       </c>
-      <c r="F48" s="27">
-        <v>2</v>
-      </c>
-      <c r="G48" s="27">
-        <v>2</v>
-      </c>
-      <c r="H48" s="27">
-        <v>2</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="24" customFormat="1">
-      <c r="A49" s="24">
+      <c r="F48" s="26">
+        <v>2</v>
+      </c>
+      <c r="G48" s="26">
+        <v>2</v>
+      </c>
+      <c r="H48" s="26">
+        <v>2</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="26" customFormat="1">
+      <c r="A49" s="26">
         <v>24</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="24">
-        <v>1</v>
-      </c>
-      <c r="E49" s="24">
+      <c r="D49" s="26">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26">
         <v>7</v>
       </c>
-      <c r="F49" s="27">
-        <v>1</v>
-      </c>
-      <c r="G49" s="27">
-        <v>1</v>
-      </c>
-      <c r="H49" s="27">
-        <v>1</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
+      <c r="F49" s="26">
+        <v>1</v>
+      </c>
+      <c r="G49" s="26">
+        <v>1</v>
+      </c>
+      <c r="H49" s="26">
+        <v>1</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="26" customFormat="1">
+      <c r="A50" s="26">
         <v>25</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="B50" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0</v>
+      </c>
+      <c r="E50" s="26">
         <v>8</v>
       </c>
-      <c r="F50" s="25">
-        <v>2</v>
-      </c>
-      <c r="G50" s="25">
-        <v>2</v>
-      </c>
-      <c r="H50" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
+      <c r="F50" s="26">
+        <v>2</v>
+      </c>
+      <c r="G50" s="26">
+        <v>2</v>
+      </c>
+      <c r="H50" s="26">
+        <v>2</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1">
+      <c r="A51" s="1">
         <v>25</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="B51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="39">
         <v>8</v>
       </c>
       <c r="F51" s="25">
@@ -3334,34 +3396,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
+    <row r="52" spans="1:9" s="26" customFormat="1">
+      <c r="A52" s="26">
         <v>26</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="B52" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0</v>
+      </c>
+      <c r="E52" s="26">
         <v>9</v>
       </c>
-      <c r="F52" s="25">
-        <v>2</v>
-      </c>
-      <c r="G52" s="25">
-        <v>2</v>
-      </c>
-      <c r="H52" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
+      <c r="F52" s="26">
+        <v>2</v>
+      </c>
+      <c r="G52" s="26">
+        <v>2</v>
+      </c>
+      <c r="H52" s="26">
+        <v>2</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1">
+      <c r="A53" s="1">
         <v>26</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="23">
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="39">
         <v>9</v>
       </c>
       <c r="F53" s="25">
@@ -3374,92 +3448,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="27" customFormat="1">
-      <c r="A54" s="27">
+    <row r="54" spans="1:9" s="26" customFormat="1">
+      <c r="A54" s="26">
         <v>27</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="27">
-        <v>0</v>
-      </c>
-      <c r="E54" s="35">
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+      <c r="E54" s="31">
         <v>10</v>
       </c>
-      <c r="F54" s="27">
-        <v>2</v>
-      </c>
-      <c r="G54" s="27">
-        <v>2</v>
-      </c>
-      <c r="H54" s="27">
-        <v>2</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="28" customFormat="1">
-      <c r="A55" s="28">
+      <c r="F54" s="26">
+        <v>2</v>
+      </c>
+      <c r="G54" s="26">
+        <v>2</v>
+      </c>
+      <c r="H54" s="26">
+        <v>2</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="26" customFormat="1">
+      <c r="A55" s="26">
         <v>27</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="28">
-        <v>1</v>
-      </c>
-      <c r="E55" s="33">
+      <c r="D55" s="26">
+        <v>1</v>
+      </c>
+      <c r="E55" s="31">
         <v>10</v>
       </c>
-      <c r="F55" s="28">
-        <v>1</v>
-      </c>
-      <c r="G55" s="28">
-        <v>1</v>
-      </c>
-      <c r="H55" s="28">
-        <v>1</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
+      <c r="F55" s="26">
+        <v>1</v>
+      </c>
+      <c r="G55" s="26">
+        <v>1</v>
+      </c>
+      <c r="H55" s="26">
+        <v>1</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="26" customFormat="1">
+      <c r="A56" s="26">
         <v>28</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
+      <c r="B56" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0</v>
+      </c>
+      <c r="E56" s="26">
         <v>11</v>
       </c>
-      <c r="F56" s="25">
-        <v>2</v>
-      </c>
-      <c r="G56" s="25">
-        <v>2</v>
-      </c>
-      <c r="H56" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
+      <c r="F56" s="26">
+        <v>2</v>
+      </c>
+      <c r="G56" s="26">
+        <v>2</v>
+      </c>
+      <c r="H56" s="26">
+        <v>2</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1">
+      <c r="A57" s="1">
         <v>28</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="23">
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="39">
         <v>11</v>
       </c>
       <c r="F57" s="25">
@@ -3472,34 +3558,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
+    <row r="58" spans="1:9" s="26" customFormat="1">
+      <c r="A58" s="26">
         <v>29</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
+      <c r="B58" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="26">
+        <v>0</v>
+      </c>
+      <c r="E58" s="26">
         <v>12</v>
       </c>
-      <c r="F58" s="25">
-        <v>2</v>
-      </c>
-      <c r="G58" s="25">
-        <v>2</v>
-      </c>
-      <c r="H58" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
+      <c r="F58" s="26">
+        <v>2</v>
+      </c>
+      <c r="G58" s="26">
+        <v>2</v>
+      </c>
+      <c r="H58" s="26">
+        <v>2</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1">
+      <c r="A59" s="1">
         <v>29</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="23">
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="39">
         <v>12</v>
       </c>
       <c r="F59" s="25">
@@ -3512,123 +3610,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
+    <row r="60" spans="1:9" s="26" customFormat="1">
+      <c r="A60" s="26">
         <v>30</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
+      <c r="B60" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="26">
+        <v>0</v>
+      </c>
+      <c r="E60" s="26">
         <v>13</v>
       </c>
-      <c r="F60" s="25">
-        <v>2</v>
-      </c>
-      <c r="G60" s="25">
-        <v>2</v>
-      </c>
-      <c r="H60" s="25">
-        <v>2</v>
+      <c r="F60" s="26">
+        <v>2</v>
+      </c>
+      <c r="G60" s="26">
+        <v>2</v>
+      </c>
+      <c r="H60" s="26">
+        <v>2</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
         <v>30</v>
       </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61">
         <v>13</v>
       </c>
-      <c r="F61" s="25">
-        <v>1</v>
-      </c>
-      <c r="G61" s="25">
-        <v>1</v>
-      </c>
-      <c r="H61" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="41" customFormat="1">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
+      <c r="D62" s="41">
+        <v>0</v>
+      </c>
+      <c r="E62" s="41">
         <v>14</v>
       </c>
-      <c r="F62" s="25">
-        <v>2</v>
-      </c>
-      <c r="G62" s="25">
-        <v>2</v>
-      </c>
-      <c r="H62" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
+      <c r="F62" s="41">
+        <v>2</v>
+      </c>
+      <c r="G62" s="41">
+        <v>2</v>
+      </c>
+      <c r="H62" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="41" customFormat="1">
+      <c r="A63" s="41">
         <v>31</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="23">
+      <c r="D63" s="41">
+        <v>1</v>
+      </c>
+      <c r="E63" s="41">
         <v>14</v>
       </c>
-      <c r="F63" s="25">
-        <v>1</v>
-      </c>
-      <c r="G63" s="25">
-        <v>1</v>
-      </c>
-      <c r="H63" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
+      <c r="F63" s="41">
+        <v>1</v>
+      </c>
+      <c r="G63" s="41">
+        <v>1</v>
+      </c>
+      <c r="H63" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="41" customFormat="1">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
+      <c r="D64" s="41">
+        <v>0</v>
+      </c>
+      <c r="E64" s="41">
         <v>15</v>
       </c>
-      <c r="F64" s="25">
-        <v>2</v>
-      </c>
-      <c r="G64" s="25">
-        <v>2</v>
-      </c>
-      <c r="H64" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="3" customFormat="1">
-      <c r="A65" s="3">
+      <c r="F64" s="41">
+        <v>2</v>
+      </c>
+      <c r="G64" s="41">
+        <v>2</v>
+      </c>
+      <c r="H64" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="42" customFormat="1">
+      <c r="A65" s="42">
         <v>32</v>
       </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="40">
+      <c r="D65" s="42">
+        <v>1</v>
+      </c>
+      <c r="E65" s="42">
         <v>15</v>
       </c>
-      <c r="F65" s="41">
-        <v>1</v>
-      </c>
-      <c r="G65" s="41">
-        <v>1</v>
-      </c>
-      <c r="H65" s="41">
+      <c r="F65" s="42">
+        <v>1</v>
+      </c>
+      <c r="G65" s="42">
+        <v>1</v>
+      </c>
+      <c r="H65" s="42">
         <v>1</v>
       </c>
     </row>
@@ -3648,13 +3758,13 @@
       <c r="E66" s="24">
         <v>0</v>
       </c>
-      <c r="F66" s="27">
-        <v>2</v>
-      </c>
-      <c r="G66" s="27">
-        <v>2</v>
-      </c>
-      <c r="H66" s="27">
+      <c r="F66" s="26">
+        <v>2</v>
+      </c>
+      <c r="G66" s="26">
+        <v>2</v>
+      </c>
+      <c r="H66" s="26">
         <v>2</v>
       </c>
       <c r="I66" s="24" t="s">
@@ -3677,13 +3787,13 @@
       <c r="E67" s="24">
         <v>0</v>
       </c>
-      <c r="F67" s="27">
-        <v>1</v>
-      </c>
-      <c r="G67" s="27">
-        <v>1</v>
-      </c>
-      <c r="H67" s="27">
+      <c r="F67" s="26">
+        <v>1</v>
+      </c>
+      <c r="G67" s="26">
+        <v>1</v>
+      </c>
+      <c r="H67" s="26">
         <v>1</v>
       </c>
       <c r="I67" s="24" t="s">
@@ -3915,7 +4025,7 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78">
         <v>6</v>
       </c>
       <c r="F78">
@@ -3935,7 +4045,7 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79">
         <v>6</v>
       </c>
       <c r="F79">
@@ -4288,23 +4398,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
+    <row r="97" spans="1:10" s="3" customFormat="1">
+      <c r="A97" s="3">
         <v>48</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" s="23">
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="36">
         <v>15</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="40" customFormat="1">
+      <c r="A98" s="41">
+        <v>49</v>
+      </c>
+      <c r="D98" s="40">
+        <v>0</v>
+      </c>
+      <c r="E98" s="40">
+        <v>0</v>
+      </c>
+      <c r="F98" s="40">
+        <v>1</v>
+      </c>
+      <c r="G98" s="40">
+        <v>1</v>
+      </c>
+      <c r="H98" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="40" customFormat="1">
+      <c r="A99" s="41">
+        <v>49</v>
+      </c>
+      <c r="D99" s="40">
+        <v>1</v>
+      </c>
+      <c r="E99" s="40">
+        <v>0</v>
+      </c>
+      <c r="F99" s="40">
+        <v>2</v>
+      </c>
+      <c r="G99" s="40">
+        <v>2</v>
+      </c>
+      <c r="H99" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="40" customFormat="1">
+      <c r="A100" s="41">
+        <v>50</v>
+      </c>
+      <c r="D100" s="40">
+        <v>0</v>
+      </c>
+      <c r="E100" s="40">
+        <v>1</v>
+      </c>
+      <c r="F100" s="40">
+        <v>1</v>
+      </c>
+      <c r="G100" s="40">
+        <v>1</v>
+      </c>
+      <c r="H100" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="40" customFormat="1">
+      <c r="A101" s="41">
+        <v>50</v>
+      </c>
+      <c r="D101" s="40">
+        <v>1</v>
+      </c>
+      <c r="E101" s="40">
+        <v>1</v>
+      </c>
+      <c r="F101" s="40">
+        <v>2</v>
+      </c>
+      <c r="G101" s="40">
+        <v>2</v>
+      </c>
+      <c r="H101" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="40" customFormat="1">
+      <c r="A108" s="40">
+        <v>55</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="40">
+        <v>0</v>
+      </c>
+      <c r="E108" s="40">
+        <v>6</v>
+      </c>
+      <c r="F108" s="40">
+        <v>2</v>
+      </c>
+      <c r="G108" s="40">
+        <v>2</v>
+      </c>
+      <c r="H108" s="40">
+        <v>2</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J108" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="40" customFormat="1">
+      <c r="A109" s="40">
+        <v>55</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="40">
+        <v>1</v>
+      </c>
+      <c r="E109" s="40">
+        <v>6</v>
+      </c>
+      <c r="F109" s="41">
+        <v>1</v>
+      </c>
+      <c r="G109" s="41">
+        <v>1</v>
+      </c>
+      <c r="H109" s="41">
         <v>1</v>
       </c>
     </row>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E7FF5-769E-4AF7-9A5D-03F8E4FFD3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF3FBFF-BB8B-48FE-BB15-CEDFA78883DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
   <si>
     <t>Col1</t>
   </si>
@@ -227,9 +221,6 @@
   </si>
   <si>
     <t>Anqi Wang</t>
-  </si>
-  <si>
-    <t>15.Mar</t>
   </si>
   <si>
     <t>Zhihan Jiang</t>
@@ -392,9 +383,6 @@
     <t>04.Aug 15:00</t>
   </si>
   <si>
-    <t>Accidently set id to be 23 which has been done already on another person</t>
-  </si>
-  <si>
     <t>04.Aug 11:00</t>
   </si>
   <si>
@@ -402,13 +390,61 @@
   </si>
   <si>
     <t>04.Aug 12:00</t>
+  </si>
+  <si>
+    <t>06.Aug 10:00</t>
+  </si>
+  <si>
+    <t>Sinan Emre Güler</t>
+  </si>
+  <si>
+    <t>06.Aug 11:00</t>
+  </si>
+  <si>
+    <t>06.Aug 12:00</t>
+  </si>
+  <si>
+    <t>06.Aug 14:00</t>
+  </si>
+  <si>
+    <t>06.Aug 15:00</t>
+  </si>
+  <si>
+    <t>06.Aug 13:00</t>
+  </si>
+  <si>
+    <t>Marko Begic</t>
+  </si>
+  <si>
+    <t>11.Aug 9:00</t>
+  </si>
+  <si>
+    <t>11.Aug 11:00</t>
+  </si>
+  <si>
+    <t>Celia Borja Almarcha</t>
+  </si>
+  <si>
+    <t>11.Aug 17:00</t>
+  </si>
+  <si>
+    <t>Accidently set id to be 23 (should be 24) which belonged to another person</t>
+  </si>
+  <si>
+    <t>15.Mar 17:00</t>
+  </si>
+  <si>
+    <t>15.Mar 18:00</t>
+  </si>
+  <si>
+    <t>11.Aug 16:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +512,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +541,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -712,13 +761,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -763,14 +813,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1086,13 +1138,13 @@
         <v>3</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1686,11 +1738,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O17" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="O17" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1731,9 +1783,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1774,9 +1826,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1817,9 +1869,9 @@
         <f t="shared" ref="K20:K22" si="15">H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1860,9 +1912,9 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1919,8 +1971,8 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2090,10 +2142,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -2119,10 +2171,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="26">
         <v>0</v>
@@ -2180,7 +2232,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -2552,7 +2604,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="D22" s="26">
         <v>1</v>
@@ -2573,78 +2625,81 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10" s="43" customFormat="1">
+      <c r="A23" s="43">
         <v>11</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="C23" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="26" customFormat="1">
-      <c r="A24" s="26">
+      <c r="F23" s="43">
+        <v>2</v>
+      </c>
+      <c r="G23" s="43">
+        <v>2</v>
+      </c>
+      <c r="H23" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="41" customFormat="1">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="26">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="C24" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
         <v>11</v>
       </c>
-      <c r="F24" s="26">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
-        <v>1</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
-      <c r="A25" s="1">
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="41">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41">
+        <v>1</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="41" customFormat="1">
+      <c r="A25" s="41">
         <v>12</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="39">
+      <c r="B25" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="F25" s="41">
+        <v>2</v>
+      </c>
+      <c r="G25" s="41">
+        <v>2</v>
+      </c>
+      <c r="H25" s="41">
         <v>2</v>
       </c>
     </row>
@@ -2685,7 +2740,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="24">
         <v>0</v>
@@ -2711,10 +2766,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D28" s="24">
         <v>1</v>
@@ -2740,10 +2795,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="24">
         <v>0</v>
@@ -2769,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>59</v>
@@ -2798,10 +2853,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="24">
         <v>0</v>
@@ -2822,7 +2877,7 @@
         <v>54</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1">
@@ -2830,10 +2885,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="26">
         <v>1</v>
@@ -2859,10 +2914,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -2920,7 +2975,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="24">
         <v>1</v>
@@ -2941,7 +2996,7 @@
         <v>54</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="24" customFormat="1">
@@ -2949,10 +3004,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -2978,10 +3033,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="24">
         <v>1</v>
@@ -3007,10 +3062,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -3036,10 +3091,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="24">
         <v>1</v>
@@ -3065,10 +3120,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -3094,10 +3149,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="24">
         <v>1</v>
@@ -3123,10 +3178,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="D42" s="26">
         <v>0</v>
@@ -3152,10 +3207,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="26">
         <v>1</v>
@@ -3181,10 +3236,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="D44" s="26">
         <v>0</v>
@@ -3210,10 +3265,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="26">
         <v>1</v>
@@ -3239,10 +3294,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>109</v>
       </c>
       <c r="D46" s="26">
         <v>0</v>
@@ -3263,27 +3318,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10" s="26" customFormat="1">
+      <c r="A47" s="26">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="39">
+      <c r="B47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1</v>
+      </c>
+      <c r="E47" s="26">
         <v>6</v>
       </c>
-      <c r="F47" s="25">
-        <v>1</v>
-      </c>
-      <c r="G47" s="25">
-        <v>1</v>
-      </c>
-      <c r="H47" s="25">
-        <v>1</v>
+      <c r="F47" s="26">
+        <v>1</v>
+      </c>
+      <c r="G47" s="26">
+        <v>1</v>
+      </c>
+      <c r="H47" s="26">
+        <v>1</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1">
@@ -3291,10 +3352,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="D48" s="26">
         <v>0</v>
@@ -3320,10 +3381,10 @@
         <v>24</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="26">
         <v>1</v>
@@ -3349,10 +3410,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>113</v>
       </c>
       <c r="D50" s="26">
         <v>0</v>
@@ -3373,27 +3434,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1">
-      <c r="A51" s="1">
+    <row r="51" spans="1:9" s="26" customFormat="1">
+      <c r="A51" s="26">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="39">
+      <c r="B51" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="26">
+        <v>1</v>
+      </c>
+      <c r="E51" s="26">
         <v>8</v>
       </c>
-      <c r="F51" s="25">
-        <v>1</v>
-      </c>
-      <c r="G51" s="25">
-        <v>1</v>
-      </c>
-      <c r="H51" s="25">
-        <v>1</v>
+      <c r="F51" s="26">
+        <v>1</v>
+      </c>
+      <c r="G51" s="26">
+        <v>1</v>
+      </c>
+      <c r="H51" s="26">
+        <v>1</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="26" customFormat="1">
@@ -3401,10 +3468,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" s="26">
         <v>0</v>
@@ -3425,27 +3492,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1">
-      <c r="A53" s="1">
+    <row r="53" spans="1:9" s="26" customFormat="1">
+      <c r="A53" s="26">
         <v>26</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="39">
+      <c r="B53" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
+      <c r="E53" s="26">
         <v>9</v>
       </c>
-      <c r="F53" s="25">
-        <v>1</v>
-      </c>
-      <c r="G53" s="25">
-        <v>1</v>
-      </c>
-      <c r="H53" s="25">
-        <v>1</v>
+      <c r="F53" s="26">
+        <v>1</v>
+      </c>
+      <c r="G53" s="26">
+        <v>1</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="26" customFormat="1">
@@ -3511,10 +3584,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="D56" s="26">
         <v>0</v>
@@ -3540,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3563,10 +3636,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="D58" s="26">
         <v>0</v>
@@ -3587,27 +3660,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1">
-      <c r="A59" s="1">
+    <row r="59" spans="1:9" s="26" customFormat="1">
+      <c r="A59" s="26">
         <v>29</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="39">
+      <c r="B59" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="26">
+        <v>1</v>
+      </c>
+      <c r="E59" s="26">
         <v>12</v>
       </c>
-      <c r="F59" s="25">
-        <v>1</v>
-      </c>
-      <c r="G59" s="25">
-        <v>1</v>
-      </c>
-      <c r="H59" s="25">
-        <v>1</v>
+      <c r="F59" s="26">
+        <v>1</v>
+      </c>
+      <c r="G59" s="26">
+        <v>1</v>
+      </c>
+      <c r="H59" s="26">
+        <v>1</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="26" customFormat="1">
@@ -3615,10 +3694,10 @@
         <v>30</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="26">
         <v>0</v>
@@ -3639,106 +3718,136 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
+    <row r="61" spans="1:9" s="24" customFormat="1">
+      <c r="A61" s="24">
         <v>30</v>
       </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="B61" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="24">
+        <v>1</v>
+      </c>
+      <c r="E61" s="24">
         <v>13</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="41" customFormat="1">
-      <c r="A62" s="41">
+      <c r="F61" s="24">
+        <v>1</v>
+      </c>
+      <c r="G61" s="24">
+        <v>1</v>
+      </c>
+      <c r="H61" s="24">
+        <v>1</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="24" customFormat="1">
+      <c r="A62" s="24">
         <v>31</v>
       </c>
-      <c r="D62" s="41">
-        <v>0</v>
-      </c>
-      <c r="E62" s="41">
+      <c r="B62" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
         <v>14</v>
       </c>
-      <c r="F62" s="41">
-        <v>2</v>
-      </c>
-      <c r="G62" s="41">
-        <v>2</v>
-      </c>
-      <c r="H62" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="41" customFormat="1">
-      <c r="A63" s="41">
+      <c r="F62" s="24">
+        <v>2</v>
+      </c>
+      <c r="G62" s="24">
+        <v>2</v>
+      </c>
+      <c r="H62" s="24">
+        <v>2</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
         <v>31</v>
       </c>
-      <c r="D63" s="41">
-        <v>1</v>
-      </c>
-      <c r="E63" s="41">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>14</v>
       </c>
-      <c r="F63" s="41">
-        <v>1</v>
-      </c>
-      <c r="G63" s="41">
-        <v>1</v>
-      </c>
-      <c r="H63" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="41" customFormat="1">
-      <c r="A64" s="41">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="24" customFormat="1">
+      <c r="A64" s="24">
         <v>32</v>
       </c>
-      <c r="D64" s="41">
-        <v>0</v>
-      </c>
-      <c r="E64" s="41">
+      <c r="B64" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="24">
+        <v>0</v>
+      </c>
+      <c r="E64" s="24">
         <v>15</v>
       </c>
-      <c r="F64" s="41">
-        <v>2</v>
-      </c>
-      <c r="G64" s="41">
-        <v>2</v>
-      </c>
-      <c r="H64" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="42" customFormat="1">
-      <c r="A65" s="42">
+      <c r="F64" s="24">
+        <v>2</v>
+      </c>
+      <c r="G64" s="24">
+        <v>2</v>
+      </c>
+      <c r="H64" s="24">
+        <v>2</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
         <v>32</v>
       </c>
-      <c r="D65" s="42">
-        <v>1</v>
-      </c>
-      <c r="E65" s="42">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>15</v>
       </c>
-      <c r="F65" s="42">
-        <v>1</v>
-      </c>
-      <c r="G65" s="42">
-        <v>1</v>
-      </c>
-      <c r="H65" s="42">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>1</v>
       </c>
     </row>
@@ -3747,10 +3856,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="D66" s="24">
         <v>1</v>
@@ -3776,10 +3885,10 @@
         <v>33</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="24">
         <v>0</v>
@@ -3805,10 +3914,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="24">
         <v>1</v>
@@ -3834,10 +3943,10 @@
         <v>34</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="24">
         <v>0</v>
@@ -4418,43 +4527,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="40" customFormat="1">
-      <c r="A98" s="41">
+    <row r="98" spans="1:10" s="42" customFormat="1">
+      <c r="A98" s="42">
         <v>49</v>
       </c>
-      <c r="D98" s="40">
-        <v>0</v>
-      </c>
-      <c r="E98" s="40">
-        <v>0</v>
-      </c>
-      <c r="F98" s="40">
-        <v>1</v>
-      </c>
-      <c r="G98" s="40">
-        <v>1</v>
-      </c>
-      <c r="H98" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="40" customFormat="1">
-      <c r="A99" s="41">
+      <c r="B98" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="42">
+        <v>0</v>
+      </c>
+      <c r="E98" s="42">
+        <v>0</v>
+      </c>
+      <c r="F98" s="42">
+        <v>1</v>
+      </c>
+      <c r="G98" s="42">
+        <v>1</v>
+      </c>
+      <c r="H98" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
         <v>49</v>
       </c>
-      <c r="D99" s="40">
-        <v>1</v>
-      </c>
-      <c r="E99" s="40">
-        <v>0</v>
-      </c>
-      <c r="F99" s="40">
-        <v>2</v>
-      </c>
-      <c r="G99" s="40">
-        <v>2</v>
-      </c>
-      <c r="H99" s="40">
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
         <v>2</v>
       </c>
     </row>
@@ -4498,59 +4616,105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="40" customFormat="1">
-      <c r="A108" s="40">
-        <v>55</v>
-      </c>
-      <c r="B108" s="40" t="s">
+    <row r="105" spans="1:10" s="40" customFormat="1">
+      <c r="A105" s="40">
+        <v>71</v>
+      </c>
+      <c r="D105" s="41">
+        <v>1</v>
+      </c>
+      <c r="E105" s="41">
+        <v>6</v>
+      </c>
+      <c r="F105" s="41">
+        <v>1</v>
+      </c>
+      <c r="G105" s="41">
+        <v>1</v>
+      </c>
+      <c r="H105" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="40" customFormat="1">
+      <c r="A106" s="40">
+        <v>71</v>
+      </c>
+      <c r="D106" s="41">
+        <v>0</v>
+      </c>
+      <c r="E106" s="41">
+        <v>6</v>
+      </c>
+      <c r="F106" s="41">
+        <v>2</v>
+      </c>
+      <c r="G106" s="41">
+        <v>2</v>
+      </c>
+      <c r="H106" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="24" customFormat="1">
+      <c r="A108" s="24">
+        <v>87</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="40">
-        <v>0</v>
-      </c>
-      <c r="E108" s="40">
+      <c r="D108" s="24">
+        <v>0</v>
+      </c>
+      <c r="E108" s="24">
         <v>6</v>
       </c>
-      <c r="F108" s="40">
-        <v>2</v>
-      </c>
-      <c r="G108" s="40">
-        <v>2</v>
-      </c>
-      <c r="H108" s="40">
-        <v>2</v>
-      </c>
-      <c r="I108" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J108" s="40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="40" customFormat="1">
-      <c r="A109" s="40">
-        <v>55</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="40">
-        <v>1</v>
-      </c>
-      <c r="E109" s="40">
+      <c r="F108" s="24">
+        <v>2</v>
+      </c>
+      <c r="G108" s="24">
+        <v>2</v>
+      </c>
+      <c r="H108" s="24">
+        <v>2</v>
+      </c>
+      <c r="I108" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="24" customFormat="1">
+      <c r="A109" s="24">
+        <v>87</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="24">
+        <v>1</v>
+      </c>
+      <c r="E109" s="24">
         <v>6</v>
       </c>
-      <c r="F109" s="41">
-        <v>1</v>
-      </c>
-      <c r="G109" s="41">
-        <v>1</v>
-      </c>
-      <c r="H109" s="41">
-        <v>1</v>
+      <c r="F109" s="26">
+        <v>1</v>
+      </c>
+      <c r="G109" s="26">
+        <v>1</v>
+      </c>
+      <c r="H109" s="26">
+        <v>1</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF3FBFF-BB8B-48FE-BB15-CEDFA78883DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EA0B4-CAC5-439B-9622-DED56962C1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
   <si>
     <t>Col1</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Anqi Wang</t>
-  </si>
-  <si>
-    <t>Zhihan Jiang</t>
   </si>
   <si>
     <t>Shuqin Hu</t>
@@ -428,16 +425,52 @@
     <t>11.Aug 17:00</t>
   </si>
   <si>
-    <t>Accidently set id to be 23 (should be 24) which belonged to another person</t>
-  </si>
-  <si>
     <t>15.Mar 17:00</t>
   </si>
   <si>
-    <t>15.Mar 18:00</t>
-  </si>
-  <si>
     <t>11.Aug 16:00</t>
+  </si>
+  <si>
+    <t>Ming Pan</t>
+  </si>
+  <si>
+    <t>12.Aug 17:00</t>
+  </si>
+  <si>
+    <t>12.Aug 18:00</t>
+  </si>
+  <si>
+    <t>Eleni Anna Charmpila</t>
+  </si>
+  <si>
+    <t>12.Aug 15:00</t>
+  </si>
+  <si>
+    <t>Philipp Reger</t>
+  </si>
+  <si>
+    <t>12.Aug 9:00</t>
+  </si>
+  <si>
+    <t>No 12 and 20 data being changed</t>
+  </si>
+  <si>
+    <t>Accidently set id to be 23 (should be 25) which belonged to another person</t>
+  </si>
+  <si>
+    <t>13.Aug 9:00</t>
+  </si>
+  <si>
+    <t>13.Aug 10:00</t>
+  </si>
+  <si>
+    <t>13.Aug 11:00</t>
+  </si>
+  <si>
+    <t>13.Aug 12:00</t>
+  </si>
+  <si>
+    <t>13.Aug 15:00</t>
   </si>
 </sst>
 </file>
@@ -768,7 +801,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -796,7 +829,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -810,14 +842,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1137,14 +1167,14 @@
       <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>72</v>
+      <c r="N1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1219,13 +1249,13 @@
       <c r="K3" s="14">
         <v>7</v>
       </c>
-      <c r="N3" s="33">
-        <v>1</v>
-      </c>
-      <c r="O3" s="34">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35">
+      <c r="N3" s="32">
+        <v>1</v>
+      </c>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="34">
         <v>2</v>
       </c>
     </row>
@@ -1260,13 +1290,13 @@
       <c r="K4" s="14">
         <v>11</v>
       </c>
-      <c r="N4" s="33">
-        <v>1</v>
-      </c>
-      <c r="O4" s="34">
-        <v>2</v>
-      </c>
-      <c r="P4" s="35">
+      <c r="N4" s="32">
+        <v>1</v>
+      </c>
+      <c r="O4" s="33">
+        <v>2</v>
+      </c>
+      <c r="P4" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1301,13 +1331,13 @@
       <c r="K5" s="17">
         <v>15</v>
       </c>
-      <c r="N5" s="33">
-        <v>1</v>
-      </c>
-      <c r="O5" s="34">
-        <v>2</v>
-      </c>
-      <c r="P5" s="35">
+      <c r="N5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="33">
+        <v>2</v>
+      </c>
+      <c r="P5" s="34">
         <v>2</v>
       </c>
     </row>
@@ -1322,13 +1352,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
-      <c r="N6" s="33">
-        <v>2</v>
-      </c>
-      <c r="O6" s="34">
-        <v>1</v>
-      </c>
-      <c r="P6" s="35">
+      <c r="N6" s="32">
+        <v>2</v>
+      </c>
+      <c r="O6" s="33">
+        <v>1</v>
+      </c>
+      <c r="P6" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1363,13 +1393,13 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="N7" s="33">
-        <v>2</v>
-      </c>
-      <c r="O7" s="34">
-        <v>1</v>
-      </c>
-      <c r="P7" s="35">
+      <c r="N7" s="32">
+        <v>2</v>
+      </c>
+      <c r="O7" s="33">
+        <v>1</v>
+      </c>
+      <c r="P7" s="34">
         <v>2</v>
       </c>
     </row>
@@ -1404,13 +1434,13 @@
       <c r="K8" s="14">
         <v>7</v>
       </c>
-      <c r="N8" s="33">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34">
-        <v>2</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="N8" s="32">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33">
+        <v>2</v>
+      </c>
+      <c r="P8" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1664,38 +1694,38 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="str">
-        <f t="shared" ref="B16:B18" si="0">E3</f>
+        <f>E3</f>
         <v>Si</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" ref="C16:C18" si="1">D3</f>
+        <f>D3</f>
         <v>Ea</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D18" si="2">C3</f>
+        <f>C3</f>
         <v>Hv</v>
       </c>
       <c r="E16" s="14" t="str">
-        <f t="shared" ref="E16:E18" si="3">B3</f>
+        <f>B3</f>
         <v>Ar</v>
       </c>
       <c r="G16" s="21">
         <v>9</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" ref="H16:H18" si="4">K3</f>
+        <f>K3</f>
         <v>7</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I18" si="5">J3</f>
+        <f>J3</f>
         <v>6</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:J18" si="6">I3</f>
+        <f>I3</f>
         <v>5</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" ref="K16:K18" si="7">H3</f>
+        <f>H3</f>
         <v>4</v>
       </c>
     </row>
@@ -1704,88 +1734,88 @@
         <v>10</v>
       </c>
       <c r="B17" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>E4</f>
         <v>Av</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>D4</f>
         <v>Sr</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>C4</f>
         <v>Ei</v>
       </c>
       <c r="E17" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>B4</f>
         <v>Ha</v>
       </c>
       <c r="G17" s="21">
         <v>10</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="4"/>
+        <f>K4</f>
         <v>11</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f>J4</f>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="6"/>
+        <f>I4</f>
         <v>9</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" si="7"/>
+        <f>H4</f>
         <v>8</v>
       </c>
-      <c r="O17" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="O17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
         <v>11</v>
       </c>
       <c r="B18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>E5</f>
         <v>Ha</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>D5</f>
         <v>Av</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>C5</f>
         <v>Sr</v>
       </c>
       <c r="E18" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>B5</f>
         <v>Ei</v>
       </c>
       <c r="G18" s="21">
         <v>11</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="4"/>
+        <f>K5</f>
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f>J5</f>
         <v>14</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f>I5</f>
         <v>13</v>
       </c>
       <c r="K18" s="14">
-        <f t="shared" si="7"/>
+        <f>H5</f>
         <v>12</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1826,133 +1856,133 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
         <v>13</v>
       </c>
       <c r="B20" s="13" t="str">
-        <f t="shared" ref="B20:B22" si="8">E12</f>
+        <f>E12</f>
         <v>Sr</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" ref="C20:C22" si="9">D12</f>
+        <f>D12</f>
         <v>Ei</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" ref="D20:D22" si="10">C12</f>
+        <f>C12</f>
         <v>Hv</v>
       </c>
       <c r="E20" s="14" t="str">
-        <f t="shared" ref="E20:E22" si="11">B12</f>
+        <f>B12</f>
         <v>Aa</v>
       </c>
       <c r="G20" s="21">
         <v>13</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" ref="H20:H22" si="12">K12</f>
+        <f>K12</f>
         <v>13</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:I22" si="13">J12</f>
+        <f>J12</f>
         <v>9</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J22" si="14">I12</f>
+        <f>I12</f>
         <v>5</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" ref="K20:K22" si="15">H12</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+        <f>H12</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>E13</f>
         <v>Av</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>D13</f>
         <v>Sr</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>C13</f>
         <v>Ea</v>
       </c>
       <c r="E21" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f>B13</f>
         <v>Hi</v>
       </c>
       <c r="G21" s="21">
         <v>14</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="12"/>
+        <f>K13</f>
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="13"/>
+        <f>J13</f>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="14"/>
+        <f>I13</f>
         <v>6</v>
       </c>
       <c r="K21" s="14">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+        <f>H13</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
         <v>15</v>
       </c>
       <c r="B22" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f>E14</f>
         <v>Ha</v>
       </c>
       <c r="C22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f>D14</f>
         <v>Av</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f>C14</f>
         <v>Si</v>
       </c>
       <c r="E22" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f>B14</f>
         <v>Er</v>
       </c>
       <c r="G22" s="22">
         <v>15</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="12"/>
+        <f>K14</f>
         <v>15</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="13"/>
+        <f>J14</f>
         <v>11</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="14"/>
+        <f>I14</f>
         <v>7</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="15"/>
+        <f>H14</f>
         <v>3</v>
       </c>
     </row>
@@ -1968,11 +1998,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2002,7 +2032,7 @@
       <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -2034,7 +2064,7 @@
       <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>0</v>
       </c>
       <c r="F2" s="24">
@@ -2050,685 +2080,693 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:10" s="25" customFormat="1">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
-        <v>2</v>
-      </c>
-      <c r="G3" s="26">
-        <v>2</v>
-      </c>
-      <c r="H3" s="26">
-        <v>2</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="26" customFormat="1">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>2</v>
+      </c>
+      <c r="G3" s="25">
+        <v>2</v>
+      </c>
+      <c r="H3" s="25">
+        <v>2</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="26">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1">
-      <c r="A5" s="26">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>1</v>
-      </c>
-      <c r="F5" s="26">
-        <v>2</v>
-      </c>
-      <c r="G5" s="26">
-        <v>2</v>
-      </c>
-      <c r="H5" s="26">
-        <v>2</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="26" customFormat="1">
-      <c r="A6" s="26">
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26">
-        <v>2</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="26" customFormat="1">
-      <c r="A7" s="26">
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>2</v>
-      </c>
-      <c r="F7" s="26">
-        <v>2</v>
-      </c>
-      <c r="G7" s="26">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26">
-        <v>2</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="26" customFormat="1">
-      <c r="A8" s="26">
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="C9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F8" s="26">
-        <v>1</v>
-      </c>
-      <c r="G8" s="26">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
-        <v>1</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="26" customFormat="1">
-      <c r="A9" s="26">
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1">
+      <c r="A10" s="25">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>3</v>
-      </c>
-      <c r="F9" s="26">
-        <v>2</v>
-      </c>
-      <c r="G9" s="26">
-        <v>2</v>
-      </c>
-      <c r="H9" s="26">
-        <v>2</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1">
-      <c r="A10" s="26">
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="25" customFormat="1">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="C11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
         <v>4</v>
       </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="26" customFormat="1">
-      <c r="A11" s="26">
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1">
+      <c r="A12" s="25">
+        <v>6</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26">
-        <v>2</v>
-      </c>
-      <c r="G11" s="26">
-        <v>2</v>
-      </c>
-      <c r="H11" s="26">
-        <v>2</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="26" customFormat="1">
-      <c r="A12" s="26">
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1">
+      <c r="A13" s="25">
         <v>6</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="C13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
         <v>5</v>
       </c>
-      <c r="F12" s="26">
-        <v>1</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="26" customFormat="1">
-      <c r="A13" s="26">
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>2</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1">
+      <c r="A14" s="25">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>5</v>
-      </c>
-      <c r="F13" s="26">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26">
-        <v>2</v>
-      </c>
-      <c r="H13" s="26">
-        <v>2</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="26" customFormat="1">
-      <c r="A14" s="26">
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1">
+      <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
         <v>6</v>
       </c>
-      <c r="F14" s="26">
-        <v>1</v>
-      </c>
-      <c r="G14" s="26">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
-        <v>1</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="26" customFormat="1">
-      <c r="A15" s="26">
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="25" customFormat="1">
+      <c r="A16" s="25">
+        <v>8</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>6</v>
-      </c>
-      <c r="F15" s="26">
-        <v>2</v>
-      </c>
-      <c r="G15" s="26">
-        <v>2</v>
-      </c>
-      <c r="H15" s="26">
-        <v>2</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="26" customFormat="1">
-      <c r="A16" s="26">
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="25" customFormat="1">
+      <c r="A17" s="25">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="26">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="C17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
         <v>7</v>
       </c>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="26" customFormat="1">
-      <c r="A17" s="26">
+      <c r="F17" s="25">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25">
+        <v>2</v>
+      </c>
+      <c r="H17" s="25">
+        <v>2</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1">
+      <c r="A18" s="25">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
-        <v>7</v>
-      </c>
-      <c r="F17" s="26">
-        <v>2</v>
-      </c>
-      <c r="G17" s="26">
-        <v>2</v>
-      </c>
-      <c r="H17" s="26">
-        <v>2</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="26" customFormat="1">
-      <c r="A18" s="26">
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="25" customFormat="1">
+      <c r="A19" s="25">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26">
-        <v>1</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="C19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
         <v>8</v>
       </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="26" customFormat="1">
-      <c r="A19" s="26">
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2</v>
+      </c>
+      <c r="H19" s="25">
+        <v>2</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="25" customFormat="1">
+      <c r="A20" s="25">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
         <v>9</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="26">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
-        <v>8</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2</v>
-      </c>
-      <c r="G19" s="26">
-        <v>2</v>
-      </c>
-      <c r="H19" s="26">
-        <v>2</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="26" customFormat="1">
-      <c r="A20" s="26">
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="41" customFormat="1">
+      <c r="A21" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31">
+      <c r="C21" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
         <v>9</v>
       </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
-      <c r="A21" s="1">
+      <c r="F21" s="41">
+        <v>2</v>
+      </c>
+      <c r="G21" s="41">
+        <v>2</v>
+      </c>
+      <c r="H21" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="25" customFormat="1">
+      <c r="A22" s="25">
+        <v>11</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" s="30">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="39">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" s="26" customFormat="1">
-      <c r="A22" s="26">
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="25" customFormat="1">
+      <c r="A23" s="25">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="26">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="C23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
         <v>10</v>
       </c>
-      <c r="F22" s="26">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26">
-        <v>1</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="43" customFormat="1">
-      <c r="A23" s="43">
+      <c r="F23" s="25">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25">
+        <v>2</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="25" customFormat="1">
+      <c r="A24" s="25">
+        <v>12</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25">
         <v>11</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43">
-        <v>10</v>
-      </c>
-      <c r="F23" s="43">
-        <v>2</v>
-      </c>
-      <c r="G23" s="43">
-        <v>2</v>
-      </c>
-      <c r="H23" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="41" customFormat="1">
-      <c r="A24" s="41">
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="40" customFormat="1">
+      <c r="A25" s="40">
         <v>12</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="41">
-        <v>1</v>
-      </c>
-      <c r="E24" s="41">
+      <c r="B25" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40">
         <v>11</v>
       </c>
-      <c r="F24" s="41">
-        <v>1</v>
-      </c>
-      <c r="G24" s="41">
-        <v>1</v>
-      </c>
-      <c r="H24" s="41">
-        <v>1</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="41" customFormat="1">
-      <c r="A25" s="41">
+      <c r="F25" s="40">
+        <v>2</v>
+      </c>
+      <c r="G25" s="40">
+        <v>2</v>
+      </c>
+      <c r="H25" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="25" customFormat="1">
+      <c r="A26" s="25">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30">
         <v>12</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="41">
-        <v>0</v>
-      </c>
-      <c r="E25" s="41">
-        <v>11</v>
-      </c>
-      <c r="F25" s="41">
-        <v>2</v>
-      </c>
-      <c r="G25" s="41">
-        <v>2</v>
-      </c>
-      <c r="H25" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="26" customFormat="1">
-      <c r="A26" s="26">
-        <v>13</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="31">
-        <v>12</v>
-      </c>
-      <c r="F26" s="26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="26" t="s">
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2740,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="24">
         <v>0</v>
@@ -2766,10 +2804,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="24">
         <v>1</v>
@@ -2795,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="24">
         <v>0</v>
@@ -2824,15 +2862,15 @@
         <v>15</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>14</v>
       </c>
       <c r="F30" s="24">
@@ -2853,10 +2891,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="24">
         <v>0</v>
@@ -2876,36 +2914,36 @@
       <c r="I31" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="26" customFormat="1">
-      <c r="A32" s="26">
+      <c r="J31" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="25" customFormat="1">
+      <c r="A32" s="25">
         <v>16</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="26">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26">
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="25">
         <v>15</v>
       </c>
-      <c r="F32" s="26">
-        <v>1</v>
-      </c>
-      <c r="G32" s="26">
-        <v>1</v>
-      </c>
-      <c r="H32" s="26">
-        <v>1</v>
-      </c>
-      <c r="I32" s="26" t="s">
+      <c r="F32" s="25">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32" s="25">
+        <v>1</v>
+      </c>
+      <c r="I32" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2914,10 +2952,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -2938,32 +2976,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="27" customFormat="1">
-      <c r="A34" s="27">
+    <row r="34" spans="1:10" s="26" customFormat="1">
+      <c r="A34" s="26">
         <v>17</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="27">
-        <v>0</v>
-      </c>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <v>2</v>
-      </c>
-      <c r="G34" s="27">
-        <v>2</v>
-      </c>
-      <c r="H34" s="27">
-        <v>2</v>
-      </c>
-      <c r="I34" s="27" t="s">
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>2</v>
+      </c>
+      <c r="G34" s="26">
+        <v>2</v>
+      </c>
+      <c r="H34" s="26">
+        <v>2</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2971,11 +3009,11 @@
       <c r="A35" s="24">
         <v>17</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="24">
         <v>1</v>
@@ -2983,20 +3021,20 @@
       <c r="E35" s="24">
         <v>0</v>
       </c>
-      <c r="F35" s="26">
-        <v>1</v>
-      </c>
-      <c r="G35" s="26">
-        <v>1</v>
-      </c>
-      <c r="H35" s="26">
+      <c r="F35" s="25">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
+      <c r="H35" s="25">
         <v>1</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="37" t="s">
-        <v>79</v>
+      <c r="J35" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="24" customFormat="1">
@@ -3004,10 +3042,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -3033,10 +3071,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="24">
         <v>1</v>
@@ -3062,10 +3100,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -3091,10 +3129,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="24">
         <v>1</v>
@@ -3102,13 +3140,13 @@
       <c r="E39" s="24">
         <v>2</v>
       </c>
-      <c r="F39" s="26">
-        <v>1</v>
-      </c>
-      <c r="G39" s="26">
-        <v>1</v>
-      </c>
-      <c r="H39" s="26">
+      <c r="F39" s="25">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="25">
         <v>1</v>
       </c>
       <c r="I39" s="24" t="s">
@@ -3120,10 +3158,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -3131,13 +3169,13 @@
       <c r="E40" s="24">
         <v>3</v>
       </c>
-      <c r="F40" s="26">
-        <v>2</v>
-      </c>
-      <c r="G40" s="26">
-        <v>2</v>
-      </c>
-      <c r="H40" s="26">
+      <c r="F40" s="25">
+        <v>2</v>
+      </c>
+      <c r="G40" s="25">
+        <v>2</v>
+      </c>
+      <c r="H40" s="25">
         <v>2</v>
       </c>
       <c r="I40" s="24" t="s">
@@ -3149,10 +3187,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="24">
         <v>1</v>
@@ -3160,561 +3198,564 @@
       <c r="E41" s="24">
         <v>3</v>
       </c>
-      <c r="F41" s="26">
-        <v>1</v>
-      </c>
-      <c r="G41" s="26">
-        <v>1</v>
-      </c>
-      <c r="H41" s="26">
+      <c r="F41" s="25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
         <v>1</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1">
-      <c r="A42" s="26">
+    <row r="42" spans="1:10" s="25" customFormat="1">
+      <c r="A42" s="25">
         <v>21</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="26">
-        <v>0</v>
-      </c>
-      <c r="E42" s="26">
+      <c r="D42" s="25">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
         <v>4</v>
       </c>
-      <c r="F42" s="26">
-        <v>2</v>
-      </c>
-      <c r="G42" s="26">
-        <v>2</v>
-      </c>
-      <c r="H42" s="26">
-        <v>2</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="26" customFormat="1">
-      <c r="A43" s="26">
+      <c r="F42" s="25">
+        <v>2</v>
+      </c>
+      <c r="G42" s="25">
+        <v>2</v>
+      </c>
+      <c r="H42" s="25">
+        <v>2</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="25" customFormat="1">
+      <c r="A43" s="25">
         <v>21</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="26">
-        <v>1</v>
-      </c>
-      <c r="E43" s="26">
+      <c r="B43" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="25">
+        <v>1</v>
+      </c>
+      <c r="E43" s="25">
         <v>4</v>
       </c>
-      <c r="F43" s="26">
-        <v>1</v>
-      </c>
-      <c r="G43" s="26">
-        <v>1</v>
-      </c>
-      <c r="H43" s="26">
-        <v>1</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="26" customFormat="1">
-      <c r="A44" s="26">
+      <c r="F43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="25">
+        <v>1</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1">
+      <c r="A44" s="25">
         <v>22</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="26">
-        <v>0</v>
-      </c>
-      <c r="E44" s="26">
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
         <v>5</v>
       </c>
-      <c r="F44" s="26">
-        <v>2</v>
-      </c>
-      <c r="G44" s="26">
-        <v>2</v>
-      </c>
-      <c r="H44" s="26">
-        <v>2</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="26" customFormat="1">
-      <c r="A45" s="26">
+      <c r="F44" s="25">
+        <v>2</v>
+      </c>
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25">
+        <v>2</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="25" customFormat="1">
+      <c r="A45" s="25">
         <v>22</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1</v>
+      </c>
+      <c r="E45" s="25">
+        <v>5</v>
+      </c>
+      <c r="F45" s="25">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25">
+        <v>1</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="25" customFormat="1">
+      <c r="A46" s="25">
+        <v>23</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="26">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26">
-        <v>1</v>
-      </c>
-      <c r="G45" s="26">
-        <v>1</v>
-      </c>
-      <c r="H45" s="26">
-        <v>1</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="26" customFormat="1">
-      <c r="A46" s="26">
+      <c r="C46" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>6</v>
+      </c>
+      <c r="F46" s="25">
+        <v>2</v>
+      </c>
+      <c r="G46" s="25">
+        <v>2</v>
+      </c>
+      <c r="H46" s="25">
+        <v>2</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="25" customFormat="1">
+      <c r="A47" s="25">
         <v>23</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="26">
-        <v>0</v>
-      </c>
-      <c r="E46" s="26">
+      <c r="B47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1</v>
+      </c>
+      <c r="E47" s="25">
         <v>6</v>
       </c>
-      <c r="F46" s="26">
-        <v>2</v>
-      </c>
-      <c r="G46" s="26">
-        <v>2</v>
-      </c>
-      <c r="H46" s="26">
-        <v>2</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="26" customFormat="1">
-      <c r="A47" s="26">
-        <v>23</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="26">
-        <v>1</v>
-      </c>
-      <c r="E47" s="26">
-        <v>6</v>
-      </c>
-      <c r="F47" s="26">
-        <v>1</v>
-      </c>
-      <c r="G47" s="26">
-        <v>1</v>
-      </c>
-      <c r="H47" s="26">
-        <v>1</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="26" customFormat="1">
-      <c r="A48" s="26">
+      <c r="F47" s="25">
+        <v>1</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
+        <v>1</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="25" customFormat="1">
+      <c r="A48" s="25">
         <v>24</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="26">
-        <v>0</v>
-      </c>
-      <c r="E48" s="26">
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
         <v>7</v>
       </c>
-      <c r="F48" s="26">
-        <v>2</v>
-      </c>
-      <c r="G48" s="26">
-        <v>2</v>
-      </c>
-      <c r="H48" s="26">
-        <v>2</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="26" customFormat="1">
-      <c r="A49" s="26">
+      <c r="F48" s="25">
+        <v>2</v>
+      </c>
+      <c r="G48" s="25">
+        <v>2</v>
+      </c>
+      <c r="H48" s="25">
+        <v>2</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="25" customFormat="1">
+      <c r="A49" s="25">
         <v>24</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="26">
-        <v>1</v>
-      </c>
-      <c r="E49" s="26">
+      <c r="B49" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1</v>
+      </c>
+      <c r="E49" s="25">
         <v>7</v>
       </c>
-      <c r="F49" s="26">
-        <v>1</v>
-      </c>
-      <c r="G49" s="26">
-        <v>1</v>
-      </c>
-      <c r="H49" s="26">
-        <v>1</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="26" customFormat="1">
-      <c r="A50" s="26">
+      <c r="F49" s="25">
+        <v>1</v>
+      </c>
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="25">
+        <v>1</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="25" customFormat="1">
+      <c r="A50" s="25">
         <v>25</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="25">
+        <v>0</v>
+      </c>
+      <c r="E50" s="25">
+        <v>8</v>
+      </c>
+      <c r="F50" s="25">
+        <v>2</v>
+      </c>
+      <c r="G50" s="25">
+        <v>2</v>
+      </c>
+      <c r="H50" s="25">
+        <v>2</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="25" customFormat="1">
+      <c r="A51" s="25">
+        <v>25</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1</v>
+      </c>
+      <c r="E51" s="25">
+        <v>8</v>
+      </c>
+      <c r="F51" s="25">
+        <v>1</v>
+      </c>
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25">
+        <v>1</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="25" customFormat="1">
+      <c r="A52" s="25">
+        <v>26</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="26">
-        <v>0</v>
-      </c>
-      <c r="E50" s="26">
-        <v>8</v>
-      </c>
-      <c r="F50" s="26">
-        <v>2</v>
-      </c>
-      <c r="G50" s="26">
-        <v>2</v>
-      </c>
-      <c r="H50" s="26">
-        <v>2</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="26" customFormat="1">
-      <c r="A51" s="26">
-        <v>25</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="26">
-        <v>1</v>
-      </c>
-      <c r="E51" s="26">
-        <v>8</v>
-      </c>
-      <c r="F51" s="26">
-        <v>1</v>
-      </c>
-      <c r="G51" s="26">
-        <v>1</v>
-      </c>
-      <c r="H51" s="26">
-        <v>1</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="26" customFormat="1">
-      <c r="A52" s="26">
+      <c r="C52" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="25">
+        <v>0</v>
+      </c>
+      <c r="E52" s="25">
+        <v>9</v>
+      </c>
+      <c r="F52" s="25">
+        <v>2</v>
+      </c>
+      <c r="G52" s="25">
+        <v>2</v>
+      </c>
+      <c r="H52" s="25">
+        <v>2</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="25" customFormat="1">
+      <c r="A53" s="25">
         <v>26</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B53" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="25">
+        <v>1</v>
+      </c>
+      <c r="E53" s="25">
+        <v>9</v>
+      </c>
+      <c r="F53" s="25">
+        <v>1</v>
+      </c>
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25">
+        <v>1</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="25" customFormat="1">
+      <c r="A54" s="25">
+        <v>27</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="25">
+        <v>0</v>
+      </c>
+      <c r="E54" s="30">
+        <v>10</v>
+      </c>
+      <c r="F54" s="25">
+        <v>2</v>
+      </c>
+      <c r="G54" s="25">
+        <v>2</v>
+      </c>
+      <c r="H54" s="25">
+        <v>2</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="25" customFormat="1">
+      <c r="A55" s="25">
+        <v>27</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="25">
+        <v>1</v>
+      </c>
+      <c r="E55" s="30">
+        <v>10</v>
+      </c>
+      <c r="F55" s="25">
+        <v>1</v>
+      </c>
+      <c r="G55" s="25">
+        <v>1</v>
+      </c>
+      <c r="H55" s="25">
+        <v>1</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="25" customFormat="1">
+      <c r="A56" s="25">
+        <v>28</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C56" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0</v>
+      </c>
+      <c r="E56" s="25">
+        <v>11</v>
+      </c>
+      <c r="F56" s="25">
+        <v>2</v>
+      </c>
+      <c r="G56" s="25">
+        <v>2</v>
+      </c>
+      <c r="H56" s="25">
+        <v>2</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="41" customFormat="1">
+      <c r="A57" s="41">
+        <v>28</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="41">
+        <v>1</v>
+      </c>
+      <c r="E57" s="41">
+        <v>11</v>
+      </c>
+      <c r="F57" s="41">
+        <v>1</v>
+      </c>
+      <c r="G57" s="41">
+        <v>1</v>
+      </c>
+      <c r="H57" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="25" customFormat="1">
+      <c r="A58" s="25">
+        <v>29</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="25">
+        <v>0</v>
+      </c>
+      <c r="E58" s="25">
+        <v>12</v>
+      </c>
+      <c r="F58" s="25">
+        <v>2</v>
+      </c>
+      <c r="G58" s="25">
+        <v>2</v>
+      </c>
+      <c r="H58" s="25">
+        <v>2</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="25" customFormat="1">
+      <c r="A59" s="25">
+        <v>29</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="25">
+        <v>1</v>
+      </c>
+      <c r="E59" s="25">
+        <v>12</v>
+      </c>
+      <c r="F59" s="25">
+        <v>1</v>
+      </c>
+      <c r="G59" s="25">
+        <v>1</v>
+      </c>
+      <c r="H59" s="25">
+        <v>1</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="25" customFormat="1">
+      <c r="A60" s="25">
+        <v>30</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="26">
-        <v>0</v>
-      </c>
-      <c r="E52" s="26">
-        <v>9</v>
-      </c>
-      <c r="F52" s="26">
-        <v>2</v>
-      </c>
-      <c r="G52" s="26">
-        <v>2</v>
-      </c>
-      <c r="H52" s="26">
-        <v>2</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="26" customFormat="1">
-      <c r="A53" s="26">
-        <v>26</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="26">
-        <v>1</v>
-      </c>
-      <c r="E53" s="26">
-        <v>9</v>
-      </c>
-      <c r="F53" s="26">
-        <v>1</v>
-      </c>
-      <c r="G53" s="26">
-        <v>1</v>
-      </c>
-      <c r="H53" s="26">
-        <v>1</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="26" customFormat="1">
-      <c r="A54" s="26">
-        <v>27</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="26">
-        <v>0</v>
-      </c>
-      <c r="E54" s="31">
-        <v>10</v>
-      </c>
-      <c r="F54" s="26">
-        <v>2</v>
-      </c>
-      <c r="G54" s="26">
-        <v>2</v>
-      </c>
-      <c r="H54" s="26">
-        <v>2</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="26" customFormat="1">
-      <c r="A55" s="26">
-        <v>27</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
-      <c r="E55" s="31">
-        <v>10</v>
-      </c>
-      <c r="F55" s="26">
-        <v>1</v>
-      </c>
-      <c r="G55" s="26">
-        <v>1</v>
-      </c>
-      <c r="H55" s="26">
-        <v>1</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="26" customFormat="1">
-      <c r="A56" s="26">
-        <v>28</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="26">
-        <v>0</v>
-      </c>
-      <c r="E56" s="26">
-        <v>11</v>
-      </c>
-      <c r="F56" s="26">
-        <v>2</v>
-      </c>
-      <c r="G56" s="26">
-        <v>2</v>
-      </c>
-      <c r="H56" s="26">
-        <v>2</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1">
-      <c r="A57" s="1">
-        <v>28</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="39">
-        <v>11</v>
-      </c>
-      <c r="F57" s="25">
-        <v>1</v>
-      </c>
-      <c r="G57" s="25">
-        <v>1</v>
-      </c>
-      <c r="H57" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="26" customFormat="1">
-      <c r="A58" s="26">
-        <v>29</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="26">
-        <v>0</v>
-      </c>
-      <c r="E58" s="26">
-        <v>12</v>
-      </c>
-      <c r="F58" s="26">
-        <v>2</v>
-      </c>
-      <c r="G58" s="26">
-        <v>2</v>
-      </c>
-      <c r="H58" s="26">
-        <v>2</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="26" customFormat="1">
-      <c r="A59" s="26">
-        <v>29</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="26">
-        <v>1</v>
-      </c>
-      <c r="E59" s="26">
-        <v>12</v>
-      </c>
-      <c r="F59" s="26">
-        <v>1</v>
-      </c>
-      <c r="G59" s="26">
-        <v>1</v>
-      </c>
-      <c r="H59" s="26">
-        <v>1</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="26" customFormat="1">
-      <c r="A60" s="26">
-        <v>30</v>
-      </c>
-      <c r="B60" s="26" t="s">
+      <c r="C60" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="26">
-        <v>0</v>
-      </c>
-      <c r="E60" s="26">
+      <c r="D60" s="25">
+        <v>0</v>
+      </c>
+      <c r="E60" s="25">
         <v>13</v>
       </c>
-      <c r="F60" s="26">
-        <v>2</v>
-      </c>
-      <c r="G60" s="26">
-        <v>2</v>
-      </c>
-      <c r="H60" s="26">
-        <v>2</v>
-      </c>
-      <c r="I60" s="26" t="s">
+      <c r="F60" s="25">
+        <v>2</v>
+      </c>
+      <c r="G60" s="25">
+        <v>2</v>
+      </c>
+      <c r="H60" s="25">
+        <v>2</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3723,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="24">
         <v>1</v>
@@ -3752,10 +3793,10 @@
         <v>31</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="D62" s="24">
         <v>0</v>
@@ -3776,26 +3817,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
+    <row r="63" spans="1:9" s="40" customFormat="1">
+      <c r="A63" s="40">
         <v>31</v>
       </c>
-      <c r="B63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="B63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="40">
+        <v>1</v>
+      </c>
+      <c r="E63" s="40">
         <v>14</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
+      <c r="F63" s="40">
+        <v>1</v>
+      </c>
+      <c r="G63" s="40">
+        <v>1</v>
+      </c>
+      <c r="H63" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3804,10 +3848,10 @@
         <v>32</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="D64" s="24">
         <v>0</v>
@@ -3828,26 +3872,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
+    <row r="65" spans="1:9" s="40" customFormat="1">
+      <c r="A65" s="40">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="B65" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="40">
+        <v>1</v>
+      </c>
+      <c r="E65" s="40">
         <v>15</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="F65" s="40">
+        <v>1</v>
+      </c>
+      <c r="G65" s="40">
+        <v>1</v>
+      </c>
+      <c r="H65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3856,24 +3903,24 @@
         <v>33</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="D66" s="24">
         <v>1</v>
       </c>
       <c r="E66" s="24">
         <v>0</v>
       </c>
-      <c r="F66" s="26">
-        <v>2</v>
-      </c>
-      <c r="G66" s="26">
-        <v>2</v>
-      </c>
-      <c r="H66" s="26">
+      <c r="F66" s="25">
+        <v>2</v>
+      </c>
+      <c r="G66" s="25">
+        <v>2</v>
+      </c>
+      <c r="H66" s="25">
         <v>2</v>
       </c>
       <c r="I66" s="24" t="s">
@@ -3885,10 +3932,10 @@
         <v>33</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="24">
         <v>0</v>
@@ -3896,13 +3943,13 @@
       <c r="E67" s="24">
         <v>0</v>
       </c>
-      <c r="F67" s="26">
-        <v>1</v>
-      </c>
-      <c r="G67" s="26">
-        <v>1</v>
-      </c>
-      <c r="H67" s="26">
+      <c r="F67" s="25">
+        <v>1</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="25">
         <v>1</v>
       </c>
       <c r="I67" s="24" t="s">
@@ -3914,10 +3961,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="24">
         <v>1</v>
@@ -3943,10 +3990,10 @@
         <v>34</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="24">
         <v>0</v>
@@ -4514,7 +4561,7 @@
       <c r="D97" s="3">
         <v>0</v>
       </c>
-      <c r="E97" s="36">
+      <c r="E97" s="35">
         <v>15</v>
       </c>
       <c r="F97" s="3">
@@ -4527,132 +4574,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="42" customFormat="1">
-      <c r="A98" s="42">
+    <row r="98" spans="1:10" s="24" customFormat="1">
+      <c r="A98" s="24">
         <v>49</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="42">
-        <v>0</v>
-      </c>
-      <c r="E98" s="42">
-        <v>0</v>
-      </c>
-      <c r="F98" s="42">
-        <v>1</v>
-      </c>
-      <c r="G98" s="42">
-        <v>1</v>
-      </c>
-      <c r="H98" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99">
+      <c r="D98" s="24">
+        <v>0</v>
+      </c>
+      <c r="E98" s="24">
+        <v>0</v>
+      </c>
+      <c r="F98" s="24">
+        <v>1</v>
+      </c>
+      <c r="G98" s="24">
+        <v>1</v>
+      </c>
+      <c r="H98" s="24">
+        <v>1</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="24" customFormat="1">
+      <c r="A99" s="24">
         <v>49</v>
       </c>
-      <c r="B99" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="40" customFormat="1">
-      <c r="A100" s="41">
+      <c r="B99" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="24">
+        <v>1</v>
+      </c>
+      <c r="E99" s="24">
+        <v>0</v>
+      </c>
+      <c r="F99" s="24">
+        <v>2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>2</v>
+      </c>
+      <c r="H99" s="24">
+        <v>2</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="24" customFormat="1">
+      <c r="A100" s="24">
         <v>50</v>
       </c>
-      <c r="D100" s="40">
-        <v>0</v>
-      </c>
-      <c r="E100" s="40">
-        <v>1</v>
-      </c>
-      <c r="F100" s="40">
-        <v>1</v>
-      </c>
-      <c r="G100" s="40">
-        <v>1</v>
-      </c>
-      <c r="H100" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="40" customFormat="1">
-      <c r="A101" s="41">
+      <c r="B100" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="24">
+        <v>0</v>
+      </c>
+      <c r="E100" s="24">
+        <v>1</v>
+      </c>
+      <c r="F100" s="24">
+        <v>1</v>
+      </c>
+      <c r="G100" s="24">
+        <v>1</v>
+      </c>
+      <c r="H100" s="24">
+        <v>1</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
         <v>50</v>
       </c>
-      <c r="D101" s="40">
-        <v>1</v>
-      </c>
-      <c r="E101" s="40">
-        <v>1</v>
-      </c>
-      <c r="F101" s="40">
-        <v>2</v>
-      </c>
-      <c r="G101" s="40">
-        <v>2</v>
-      </c>
-      <c r="H101" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="40" customFormat="1">
-      <c r="A105" s="40">
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="24" customFormat="1">
+      <c r="A105" s="24">
         <v>71</v>
       </c>
-      <c r="D105" s="41">
-        <v>1</v>
-      </c>
-      <c r="E105" s="41">
+      <c r="B105" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="24">
+        <v>1</v>
+      </c>
+      <c r="E105" s="24">
         <v>6</v>
       </c>
-      <c r="F105" s="41">
-        <v>1</v>
-      </c>
-      <c r="G105" s="41">
-        <v>1</v>
-      </c>
-      <c r="H105" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="40" customFormat="1">
-      <c r="A106" s="40">
+      <c r="F105" s="24">
+        <v>1</v>
+      </c>
+      <c r="G105" s="24">
+        <v>1</v>
+      </c>
+      <c r="H105" s="24">
+        <v>1</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
         <v>71</v>
       </c>
-      <c r="D106" s="41">
-        <v>0</v>
-      </c>
-      <c r="E106" s="41">
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>6</v>
       </c>
-      <c r="F106" s="41">
-        <v>2</v>
-      </c>
-      <c r="G106" s="41">
-        <v>2</v>
-      </c>
-      <c r="H106" s="41">
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
         <v>2</v>
       </c>
     </row>
@@ -4661,10 +4741,10 @@
         <v>87</v>
       </c>
       <c r="B108" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="D108" s="24">
         <v>0</v>
@@ -4685,7 +4765,7 @@
         <v>54</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="24" customFormat="1">
@@ -4693,10 +4773,10 @@
         <v>87</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" s="24">
         <v>1</v>
@@ -4704,17 +4784,22 @@
       <c r="E109" s="24">
         <v>6</v>
       </c>
-      <c r="F109" s="26">
-        <v>1</v>
-      </c>
-      <c r="G109" s="26">
-        <v>1</v>
-      </c>
-      <c r="H109" s="26">
+      <c r="F109" s="25">
+        <v>1</v>
+      </c>
+      <c r="G109" s="25">
+        <v>1</v>
+      </c>
+      <c r="H109" s="25">
         <v>1</v>
       </c>
       <c r="I109" s="24" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EA0B4-CAC5-439B-9622-DED56962C1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C0AC2-F130-4B12-A5D1-64245E229BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
   <si>
     <t>Col1</t>
   </si>
@@ -458,26 +458,23 @@
     <t>Accidently set id to be 23 (should be 25) which belonged to another person</t>
   </si>
   <si>
-    <t>13.Aug 9:00</t>
-  </si>
-  <si>
     <t>13.Aug 10:00</t>
   </si>
   <si>
     <t>13.Aug 11:00</t>
   </si>
   <si>
-    <t>13.Aug 12:00</t>
-  </si>
-  <si>
     <t>13.Aug 15:00</t>
+  </si>
+  <si>
+    <t>13.Aug 13:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,16 +542,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,11 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -794,14 +778,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -846,13 +829,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1134,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2001,8 +1981,8 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2602,30 +2582,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="41" customFormat="1">
-      <c r="A21" s="41">
+    <row r="21" spans="1:10" s="25" customFormat="1">
+      <c r="A21" s="25">
         <v>10</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="C21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
         <v>9</v>
       </c>
-      <c r="F21" s="41">
-        <v>2</v>
-      </c>
-      <c r="G21" s="41">
-        <v>2</v>
-      </c>
-      <c r="H21" s="41">
-        <v>2</v>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>2</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1">
@@ -2715,30 +2701,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="40" customFormat="1">
-      <c r="A25" s="40">
+    <row r="25" spans="1:10" s="24" customFormat="1">
+      <c r="A25" s="24">
         <v>12</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="C25" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
         <v>11</v>
       </c>
-      <c r="F25" s="40">
-        <v>2</v>
-      </c>
-      <c r="G25" s="40">
-        <v>2</v>
-      </c>
-      <c r="H25" s="40">
-        <v>2</v>
+      <c r="F25" s="24">
+        <v>2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>2</v>
+      </c>
+      <c r="H25" s="24">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1">
@@ -3646,29 +3635,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="41" customFormat="1">
-      <c r="A57" s="41">
+    <row r="57" spans="1:9">
+      <c r="A57">
         <v>28</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="41">
-        <v>1</v>
-      </c>
-      <c r="E57" s="41">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>11</v>
       </c>
-      <c r="F57" s="41">
-        <v>1</v>
-      </c>
-      <c r="G57" s="41">
-        <v>1</v>
-      </c>
-      <c r="H57" s="41">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
     </row>
@@ -3817,30 +3803,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="40" customFormat="1">
-      <c r="A63" s="40">
+    <row r="63" spans="1:9" s="24" customFormat="1">
+      <c r="A63" s="24">
         <v>31</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="40">
-        <v>1</v>
-      </c>
-      <c r="E63" s="40">
+      <c r="C63" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="24">
+        <v>1</v>
+      </c>
+      <c r="E63" s="24">
         <v>14</v>
       </c>
-      <c r="F63" s="40">
-        <v>1</v>
-      </c>
-      <c r="G63" s="40">
-        <v>1</v>
-      </c>
-      <c r="H63" s="40">
-        <v>1</v>
+      <c r="F63" s="24">
+        <v>1</v>
+      </c>
+      <c r="G63" s="24">
+        <v>1</v>
+      </c>
+      <c r="H63" s="24">
+        <v>1</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="24" customFormat="1">
@@ -3872,30 +3861,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="40" customFormat="1">
-      <c r="A65" s="40">
+    <row r="65" spans="1:9" s="24" customFormat="1">
+      <c r="A65" s="24">
         <v>32</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="40">
-        <v>1</v>
-      </c>
-      <c r="E65" s="40">
+      <c r="C65" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="24">
+        <v>1</v>
+      </c>
+      <c r="E65" s="24">
         <v>15</v>
       </c>
-      <c r="F65" s="40">
-        <v>1</v>
-      </c>
-      <c r="G65" s="40">
-        <v>1</v>
-      </c>
-      <c r="H65" s="40">
-        <v>1</v>
+      <c r="F65" s="24">
+        <v>1</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1</v>
+      </c>
+      <c r="H65" s="24">
+        <v>1</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="24" customFormat="1">

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C0AC2-F130-4B12-A5D1-64245E229BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC72782-A43B-49D9-B2DF-9E26F542A31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
   <si>
     <t>Col1</t>
   </si>
@@ -368,12 +368,6 @@
     <t>Lisa Borchert</t>
   </si>
   <si>
-    <t>malek arous</t>
-  </si>
-  <si>
-    <t>04.Aug 14:00</t>
-  </si>
-  <si>
     <t>Marius Schikora</t>
   </si>
   <si>
@@ -468,13 +462,28 @@
   </si>
   <si>
     <t>13.Aug 13:00</t>
+  </si>
+  <si>
+    <t>18.Aug 18:00</t>
+  </si>
+  <si>
+    <t>18.Aug 17:00</t>
+  </si>
+  <si>
+    <t>No 28 too, came only once ever</t>
+  </si>
+  <si>
+    <t>Shitanshu Kamani</t>
+  </si>
+  <si>
+    <t>19.Aug 17:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +551,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +580,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -778,13 +800,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -826,13 +849,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1748,11 +1774,11 @@
         <f>H4</f>
         <v>8</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1793,9 +1819,9 @@
         <f>H5</f>
         <v>12</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1836,9 +1862,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1879,9 +1905,9 @@
         <f>H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1922,9 +1948,9 @@
         <f>H13</f>
         <v>2</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1978,11 +2004,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F24D3-6BE6-4CB6-9FA7-79DC1B6507FC}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2590,7 +2616,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="25">
         <v>0</v>
@@ -2622,7 +2648,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="25">
         <v>1</v>
@@ -2651,7 +2677,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -2677,10 +2703,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="25">
         <v>1</v>
@@ -2706,10 +2732,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="24">
         <v>0</v>
@@ -3353,7 +3379,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="25">
         <v>1</v>
@@ -3469,7 +3495,7 @@
         <v>110</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="25">
         <v>1</v>
@@ -3498,7 +3524,7 @@
         <v>112</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="25">
         <v>0</v>
@@ -3527,7 +3553,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="25">
         <v>1</v>
@@ -3606,33 +3632,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="25" customFormat="1">
-      <c r="A56" s="25">
+    <row r="56" spans="1:9" s="39" customFormat="1">
+      <c r="A56" s="39">
         <v>28</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0</v>
-      </c>
-      <c r="E56" s="25">
+      <c r="B56" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="39">
+        <v>0</v>
+      </c>
+      <c r="E56" s="39">
         <v>11</v>
       </c>
-      <c r="F56" s="25">
-        <v>2</v>
-      </c>
-      <c r="G56" s="25">
-        <v>2</v>
-      </c>
-      <c r="H56" s="25">
-        <v>2</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>54</v>
+      <c r="F56" s="39">
+        <v>2</v>
+      </c>
+      <c r="G56" s="39">
+        <v>2</v>
+      </c>
+      <c r="H56" s="39">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3640,7 +3663,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3663,10 +3686,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="25">
         <v>0</v>
@@ -3692,10 +3715,10 @@
         <v>29</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="25">
         <v>1</v>
@@ -3721,10 +3744,10 @@
         <v>30</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D60" s="25">
         <v>0</v>
@@ -3750,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="24">
         <v>1</v>
@@ -3779,10 +3802,10 @@
         <v>31</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" s="24">
         <v>0</v>
@@ -3808,10 +3831,10 @@
         <v>31</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="24">
         <v>1</v>
@@ -3837,10 +3860,10 @@
         <v>32</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="24">
         <v>0</v>
@@ -3866,10 +3889,10 @@
         <v>32</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="24">
         <v>1</v>
@@ -4571,10 +4594,10 @@
         <v>49</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D98" s="24">
         <v>0</v>
@@ -4600,10 +4623,10 @@
         <v>49</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D99" s="24">
         <v>1</v>
@@ -4629,11 +4652,11 @@
         <v>50</v>
       </c>
       <c r="B100" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="D100" s="24">
         <v>0</v>
       </c>
@@ -4653,27 +4676,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
-      <c r="A101">
+    <row r="101" spans="1:10" s="24" customFormat="1">
+      <c r="A101" s="24">
         <v>50</v>
       </c>
-      <c r="B101" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-      <c r="H101">
-        <v>2</v>
+      <c r="B101" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="24">
+        <v>1</v>
+      </c>
+      <c r="E101" s="24">
+        <v>1</v>
+      </c>
+      <c r="F101" s="24">
+        <v>2</v>
+      </c>
+      <c r="G101" s="24">
+        <v>2</v>
+      </c>
+      <c r="H101" s="24">
+        <v>2</v>
+      </c>
+      <c r="I101" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="24" customFormat="1">
@@ -4681,10 +4710,10 @@
         <v>71</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D105" s="24">
         <v>1</v>
@@ -4705,27 +4734,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106">
+    <row r="106" spans="1:10" s="24" customFormat="1">
+      <c r="A106" s="24">
         <v>71</v>
       </c>
-      <c r="B106" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
+      <c r="B106" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" s="24">
+        <v>0</v>
+      </c>
+      <c r="E106" s="24">
         <v>6</v>
       </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>2</v>
+      <c r="F106" s="24">
+        <v>2</v>
+      </c>
+      <c r="G106" s="24">
+        <v>2</v>
+      </c>
+      <c r="H106" s="24">
+        <v>2</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="24" customFormat="1">
@@ -4757,7 +4792,7 @@
         <v>54</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="24" customFormat="1">
@@ -4768,7 +4803,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D109" s="24">
         <v>1</v>
@@ -4791,7 +4826,12 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="38" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC72782-A43B-49D9-B2DF-9E26F542A31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22092483-4FF6-400F-8125-FA12CDD44F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="150">
   <si>
     <t>Col1</t>
   </si>
@@ -483,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,16 +551,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,11 +572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -800,14 +787,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -849,16 +835,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1774,11 +1758,11 @@
         <f>H4</f>
         <v>8</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1819,9 +1803,9 @@
         <f>H5</f>
         <v>12</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1862,9 +1846,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1905,9 +1889,9 @@
         <f>H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1948,9 +1932,9 @@
         <f>H13</f>
         <v>2</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -2007,8 +1991,8 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3632,30 +3616,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="39" customFormat="1">
-      <c r="A56" s="39">
+    <row r="56" spans="1:9" s="24" customFormat="1">
+      <c r="A56" s="24">
         <v>28</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="39">
-        <v>0</v>
-      </c>
-      <c r="E56" s="39">
+      <c r="D56" s="24">
+        <v>0</v>
+      </c>
+      <c r="E56" s="24">
         <v>11</v>
       </c>
-      <c r="F56" s="39">
-        <v>2</v>
-      </c>
-      <c r="G56" s="39">
-        <v>2</v>
-      </c>
-      <c r="H56" s="39">
-        <v>2</v>
+      <c r="F56" s="24">
+        <v>2</v>
+      </c>
+      <c r="G56" s="24">
+        <v>2</v>
+      </c>
+      <c r="H56" s="24">
+        <v>2</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3884,32 +3871,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="24" customFormat="1">
-      <c r="A65" s="24">
+    <row r="65" spans="1:9" s="40" customFormat="1">
+      <c r="A65" s="40">
         <v>32</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="24">
-        <v>1</v>
-      </c>
-      <c r="E65" s="24">
+      <c r="D65" s="40">
+        <v>1</v>
+      </c>
+      <c r="E65" s="40">
         <v>15</v>
       </c>
-      <c r="F65" s="24">
-        <v>1</v>
-      </c>
-      <c r="G65" s="24">
-        <v>1</v>
-      </c>
-      <c r="H65" s="24">
-        <v>1</v>
-      </c>
-      <c r="I65" s="24" t="s">
+      <c r="F65" s="40">
+        <v>1</v>
+      </c>
+      <c r="G65" s="40">
+        <v>1</v>
+      </c>
+      <c r="H65" s="40">
+        <v>1</v>
+      </c>
+      <c r="I65" s="40" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Experiment Arrangements.xlsx
+++ b/Experiment Arrangements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruoyu\MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22092483-4FF6-400F-8125-FA12CDD44F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC92FBE-0735-45E5-B432-28A703D758D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latin Squares" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="154">
   <si>
     <t>Col1</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>19.Aug 17:00</t>
+  </si>
+  <si>
+    <t>20.Aug 17:00</t>
+  </si>
+  <si>
+    <t>Jin Wei Tan</t>
+  </si>
+  <si>
+    <t>20.Aug 13:00</t>
+  </si>
+  <si>
+    <t>21.Aug 11:00</t>
   </si>
 </sst>
 </file>
@@ -835,10 +847,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1758,11 +1770,11 @@
         <f>H4</f>
         <v>8</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="21">
@@ -1803,9 +1815,9 @@
         <f>H5</f>
         <v>12</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="21">
@@ -1846,9 +1858,9 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="21">
@@ -1889,9 +1901,9 @@
         <f>H12</f>
         <v>1</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="21">
@@ -1932,9 +1944,9 @@
         <f>H13</f>
         <v>2</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="22">
@@ -1991,8 +2003,8 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3645,27 +3657,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
+    <row r="57" spans="1:9" s="24" customFormat="1">
+      <c r="A57" s="24">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="C57" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24">
         <v>11</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
+      <c r="F57" s="24">
+        <v>1</v>
+      </c>
+      <c r="G57" s="24">
+        <v>1</v>
+      </c>
+      <c r="H57" s="24">
+        <v>1</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="25" customFormat="1">
@@ -3871,32 +3889,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="40" customFormat="1">
-      <c r="A65" s="40">
+    <row r="65" spans="1:9" s="39" customFormat="1">
+      <c r="A65" s="39">
         <v>32</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="40">
-        <v>1</v>
-      </c>
-      <c r="E65" s="40">
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
+      <c r="E65" s="39">
         <v>15</v>
       </c>
-      <c r="F65" s="40">
-        <v>1</v>
-      </c>
-      <c r="G65" s="40">
-        <v>1</v>
-      </c>
-      <c r="H65" s="40">
-        <v>1</v>
-      </c>
-      <c r="I65" s="40" t="s">
+      <c r="F65" s="39">
+        <v>1</v>
+      </c>
+      <c r="G65" s="39">
+        <v>1</v>
+      </c>
+      <c r="H65" s="39">
+        <v>1</v>
+      </c>
+      <c r="I65" s="39" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4016,44 +4034,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
+    <row r="70" spans="1:9" s="24" customFormat="1">
+      <c r="A70" s="24">
         <v>35</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="23">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
+      <c r="B70" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="24">
+        <v>1</v>
+      </c>
+      <c r="E70" s="24">
+        <v>2</v>
+      </c>
+      <c r="F70" s="24">
+        <v>2</v>
+      </c>
+      <c r="G70" s="24">
+        <v>2</v>
+      </c>
+      <c r="H70" s="24">
+        <v>2</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="24" customFormat="1">
+      <c r="A71" s="24">
         <v>35</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" s="23">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
+      <c r="B71" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0</v>
+      </c>
+      <c r="E71" s="24">
+        <v>2</v>
+      </c>
+      <c r="F71" s="24">
+        <v>1</v>
+      </c>
+      <c r="G71" s="24">
+        <v>1</v>
+      </c>
+      <c r="H71" s="24">
+        <v>1</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:9">
